--- a/data/new_roma_required_test.xlsx
+++ b/data/new_roma_required_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\CloudLoan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F19786-DB1E-5141-BA50-87A9D018056B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957F5481-898A-49F2-8355-6A87CDB4E04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="460" windowWidth="24980" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data_new" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>param</t>
-  </si>
-  <si>
-    <t>/api/v1/credit/apply</t>
   </si>
   <si>
     <t>{
@@ -3353,6 +3350,10 @@
     <t>/api/v1/roma/credit/apply</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>/api/v1/roma/credit/apply</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3386,6 +3387,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -4855,14 +4857,14 @@
       <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="79.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" style="1" customWidth="1"/>
-    <col min="6" max="256" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="79.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" style="1" customWidth="1"/>
+    <col min="6" max="256" width="16.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="41.25" customHeight="1">
@@ -4884,24 +4886,24 @@
     </row>
     <row r="2" spans="1:5" ht="63.25" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4000</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="B2" s="5">
-        <v>4000</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>623</v>
-      </c>
       <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.5">
+      <c r="A3" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="B3" s="9">
         <v>4000</v>
@@ -4910,9 +4912,9 @@
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="15.5">
       <c r="A4" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="9">
         <v>4000</v>
@@ -4921,9 +4923,9 @@
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="15.5">
       <c r="A5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="9">
         <v>4000</v>
@@ -4934,7 +4936,7 @@
     </row>
     <row r="6" spans="1:5" ht="57" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="9">
         <v>4000</v>
@@ -4945,7 +4947,7 @@
     </row>
     <row r="7" spans="1:5" ht="57" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="9">
         <v>4000</v>
@@ -4956,7 +4958,7 @@
     </row>
     <row r="8" spans="1:5" ht="57" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="9">
         <v>4000</v>
@@ -4967,7 +4969,7 @@
     </row>
     <row r="9" spans="1:5" ht="57" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="9">
         <v>4000</v>
@@ -4978,7 +4980,7 @@
     </row>
     <row r="10" spans="1:5" ht="57" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="9">
         <v>4000</v>
@@ -4989,7 +4991,7 @@
     </row>
     <row r="11" spans="1:5" ht="57" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="9">
         <v>2000</v>
@@ -5000,7 +5002,7 @@
     </row>
     <row r="12" spans="1:5" ht="57" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="9">
         <v>2000</v>
@@ -5011,7 +5013,7 @@
     </row>
     <row r="13" spans="1:5" ht="57" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="9">
         <v>2000</v>
@@ -5022,7 +5024,7 @@
     </row>
     <row r="14" spans="1:5" ht="57" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="9">
         <v>2000</v>
@@ -5033,7 +5035,7 @@
     </row>
     <row r="15" spans="1:5" ht="57" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="9">
         <v>2000</v>
@@ -5044,7 +5046,7 @@
     </row>
     <row r="16" spans="1:5" ht="57" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="9">
         <v>2000</v>
@@ -5055,7 +5057,7 @@
     </row>
     <row r="17" spans="1:5" ht="57" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="9">
         <v>2000</v>
@@ -5066,7 +5068,7 @@
     </row>
     <row r="18" spans="1:5" ht="57" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="9">
         <v>4000</v>
@@ -5077,7 +5079,7 @@
     </row>
     <row r="19" spans="1:5" ht="57" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="9">
         <v>4000</v>
@@ -5088,7 +5090,7 @@
     </row>
     <row r="20" spans="1:5" ht="57" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="9">
         <v>4000</v>
@@ -5099,7 +5101,7 @@
     </row>
     <row r="21" spans="1:5" ht="57" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="9">
         <v>4000</v>
@@ -5110,7 +5112,7 @@
     </row>
     <row r="22" spans="1:5" ht="57" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="9">
         <v>4000</v>
@@ -5121,7 +5123,7 @@
     </row>
     <row r="23" spans="1:5" ht="57" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="9">
         <v>4000</v>
@@ -5132,7 +5134,7 @@
     </row>
     <row r="24" spans="1:5" ht="57" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="9">
         <v>4000</v>
@@ -5143,7 +5145,7 @@
     </row>
     <row r="25" spans="1:5" ht="57" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="9">
         <v>4000</v>
@@ -5154,7 +5156,7 @@
     </row>
     <row r="26" spans="1:5" ht="57" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="9">
         <v>4000</v>
@@ -5165,7 +5167,7 @@
     </row>
     <row r="27" spans="1:5" ht="57" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="9">
         <v>4000</v>
@@ -5176,7 +5178,7 @@
     </row>
     <row r="28" spans="1:5" ht="57" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="9">
         <v>4000</v>
@@ -5187,7 +5189,7 @@
     </row>
     <row r="29" spans="1:5" ht="57" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="9">
         <v>4000</v>
@@ -5198,7 +5200,7 @@
     </row>
     <row r="30" spans="1:5" ht="57" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="9">
         <v>4000</v>
@@ -5209,7 +5211,7 @@
     </row>
     <row r="31" spans="1:5" ht="57" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="9">
         <v>4000</v>
@@ -5220,7 +5222,7 @@
     </row>
     <row r="32" spans="1:5" ht="57" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="9">
         <v>4000</v>
@@ -5231,7 +5233,7 @@
     </row>
     <row r="33" spans="1:5" ht="57" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="9">
         <v>4000</v>
@@ -5242,7 +5244,7 @@
     </row>
     <row r="34" spans="1:5" ht="57" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="9">
         <v>2000</v>
@@ -5253,7 +5255,7 @@
     </row>
     <row r="35" spans="1:5" ht="57" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="9">
         <v>2000</v>
@@ -5264,7 +5266,7 @@
     </row>
     <row r="36" spans="1:5" ht="57" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="9">
         <v>4000</v>
@@ -5275,7 +5277,7 @@
     </row>
     <row r="37" spans="1:5" ht="57" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="9">
         <v>4000</v>
@@ -5286,7 +5288,7 @@
     </row>
     <row r="38" spans="1:5" ht="57" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="9">
         <v>4000</v>
@@ -5297,7 +5299,7 @@
     </row>
     <row r="39" spans="1:5" ht="57" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="9">
         <v>4000</v>
@@ -5308,7 +5310,7 @@
     </row>
     <row r="40" spans="1:5" ht="57" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="9">
         <v>4000</v>
@@ -5319,7 +5321,7 @@
     </row>
     <row r="41" spans="1:5" ht="57" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="9">
         <v>2000</v>
@@ -5330,7 +5332,7 @@
     </row>
     <row r="42" spans="1:5" ht="57" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="9">
         <v>2000</v>
@@ -5341,7 +5343,7 @@
     </row>
     <row r="43" spans="1:5" ht="57" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="9">
         <v>2000</v>
@@ -5352,7 +5354,7 @@
     </row>
     <row r="44" spans="1:5" ht="57" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="9">
         <v>2000</v>
@@ -5363,7 +5365,7 @@
     </row>
     <row r="45" spans="1:5" ht="57" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="9">
         <v>2000</v>
@@ -5374,7 +5376,7 @@
     </row>
     <row r="46" spans="1:5" ht="57" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="9">
         <v>2000</v>
@@ -5385,7 +5387,7 @@
     </row>
     <row r="47" spans="1:5" ht="57" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="9">
         <v>2000</v>
@@ -5396,7 +5398,7 @@
     </row>
     <row r="48" spans="1:5" ht="57" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="9">
         <v>2000</v>
@@ -5407,7 +5409,7 @@
     </row>
     <row r="49" spans="1:5" ht="57" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="9">
         <v>4000</v>
@@ -5418,7 +5420,7 @@
     </row>
     <row r="50" spans="1:5" ht="57" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="9">
         <v>2000</v>
@@ -5429,7 +5431,7 @@
     </row>
     <row r="51" spans="1:5" ht="57" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="9">
         <v>2000</v>
@@ -5440,7 +5442,7 @@
     </row>
     <row r="52" spans="1:5" ht="57" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="9">
         <v>2000</v>
@@ -5451,7 +5453,7 @@
     </row>
     <row r="53" spans="1:5" ht="57" customHeight="1">
       <c r="A53" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="9">
         <v>2000</v>
@@ -5462,7 +5464,7 @@
     </row>
     <row r="54" spans="1:5" ht="57" customHeight="1">
       <c r="A54" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="9">
         <v>2000</v>
@@ -5473,7 +5475,7 @@
     </row>
     <row r="55" spans="1:5" ht="57" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="9">
         <v>2000</v>
@@ -5484,7 +5486,7 @@
     </row>
     <row r="56" spans="1:5" ht="57" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="9">
         <v>2000</v>
@@ -5495,7 +5497,7 @@
     </row>
     <row r="57" spans="1:5" ht="57" customHeight="1">
       <c r="A57" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="9">
         <v>2000</v>
@@ -5506,7 +5508,7 @@
     </row>
     <row r="58" spans="1:5" ht="57" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" s="9">
         <v>4000</v>
@@ -5517,7 +5519,7 @@
     </row>
     <row r="59" spans="1:5" ht="57" customHeight="1">
       <c r="A59" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" s="9">
         <v>4000</v>
@@ -5528,7 +5530,7 @@
     </row>
     <row r="60" spans="1:5" ht="57" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="9">
         <v>4000</v>
@@ -5539,7 +5541,7 @@
     </row>
     <row r="61" spans="1:5" ht="57" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" s="9">
         <v>4000</v>
@@ -5550,7 +5552,7 @@
     </row>
     <row r="62" spans="1:5" ht="57" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="9">
         <v>4000</v>
@@ -5561,7 +5563,7 @@
     </row>
     <row r="63" spans="1:5" ht="57" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" s="9">
         <v>4000</v>
@@ -5572,7 +5574,7 @@
     </row>
     <row r="64" spans="1:5" ht="57" customHeight="1">
       <c r="A64" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" s="9">
         <v>4000</v>
@@ -5583,7 +5585,7 @@
     </row>
     <row r="65" spans="1:5" ht="57" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="9">
         <v>4000</v>
@@ -5594,7 +5596,7 @@
     </row>
     <row r="66" spans="1:5" ht="57" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" s="9">
         <v>4000</v>
@@ -5605,7 +5607,7 @@
     </row>
     <row r="67" spans="1:5" ht="42.75" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="9">
         <v>4000</v>
@@ -5616,7 +5618,7 @@
     </row>
     <row r="68" spans="1:5" ht="42.75" customHeight="1">
       <c r="A68" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" s="9">
         <v>4000</v>
@@ -5627,7 +5629,7 @@
     </row>
     <row r="69" spans="1:5" ht="42.75" customHeight="1">
       <c r="A69" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" s="9">
         <v>4000</v>
@@ -5638,7 +5640,7 @@
     </row>
     <row r="70" spans="1:5" ht="42.75" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" s="9">
         <v>4000</v>
@@ -5649,7 +5651,7 @@
     </row>
     <row r="71" spans="1:5" ht="42.75" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" s="9">
         <v>4000</v>
@@ -5660,7 +5662,7 @@
     </row>
     <row r="72" spans="1:5" ht="42.75" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="9">
         <v>4000</v>
@@ -5671,7 +5673,7 @@
     </row>
     <row r="73" spans="1:5" ht="42.75" customHeight="1">
       <c r="A73" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" s="9">
         <v>4000</v>
@@ -5682,7 +5684,7 @@
     </row>
     <row r="74" spans="1:5" ht="42.75" customHeight="1">
       <c r="A74" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" s="9">
         <v>4000</v>
@@ -5693,7 +5695,7 @@
     </row>
     <row r="75" spans="1:5" ht="42.75" customHeight="1">
       <c r="A75" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" s="9">
         <v>4000</v>
@@ -5704,7 +5706,7 @@
     </row>
     <row r="76" spans="1:5" ht="42.75" customHeight="1">
       <c r="A76" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" s="9">
         <v>4000</v>
@@ -5715,7 +5717,7 @@
     </row>
     <row r="77" spans="1:5" ht="42.75" customHeight="1">
       <c r="A77" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" s="9">
         <v>4000</v>
@@ -5726,7 +5728,7 @@
     </row>
     <row r="78" spans="1:5" ht="42.75" customHeight="1">
       <c r="A78" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" s="9">
         <v>4000</v>
@@ -5737,7 +5739,7 @@
     </row>
     <row r="79" spans="1:5" ht="42.75" customHeight="1">
       <c r="A79" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" s="9">
         <v>4000</v>
@@ -5748,7 +5750,7 @@
     </row>
     <row r="80" spans="1:5" ht="42.75" customHeight="1">
       <c r="A80" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" s="9">
         <v>4000</v>
@@ -5759,7 +5761,7 @@
     </row>
     <row r="81" spans="1:5" ht="42.75" customHeight="1">
       <c r="A81" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" s="9">
         <v>4000</v>
@@ -5770,7 +5772,7 @@
     </row>
     <row r="82" spans="1:5" ht="42.75" customHeight="1">
       <c r="A82" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" s="9">
         <v>4000</v>
@@ -5781,7 +5783,7 @@
     </row>
     <row r="83" spans="1:5" ht="42.75" customHeight="1">
       <c r="A83" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" s="9">
         <v>4000</v>
@@ -5792,7 +5794,7 @@
     </row>
     <row r="84" spans="1:5" ht="42.75" customHeight="1">
       <c r="A84" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" s="9">
         <v>4000</v>
@@ -5803,7 +5805,7 @@
     </row>
     <row r="85" spans="1:5" ht="42.75" customHeight="1">
       <c r="A85" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" s="9">
         <v>4000</v>
@@ -5814,7 +5816,7 @@
     </row>
     <row r="86" spans="1:5" ht="42.75" customHeight="1">
       <c r="A86" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" s="9">
         <v>4000</v>
@@ -5825,7 +5827,7 @@
     </row>
     <row r="87" spans="1:5" ht="42.75" customHeight="1">
       <c r="A87" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" s="9">
         <v>4000</v>
@@ -5836,7 +5838,7 @@
     </row>
     <row r="88" spans="1:5" ht="42.75" customHeight="1">
       <c r="A88" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" s="9">
         <v>4000</v>
@@ -5847,7 +5849,7 @@
     </row>
     <row r="89" spans="1:5" ht="42.75" customHeight="1">
       <c r="A89" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" s="9">
         <v>4000</v>
@@ -5858,7 +5860,7 @@
     </row>
     <row r="90" spans="1:5" ht="42.75" customHeight="1">
       <c r="A90" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90" s="9">
         <v>4000</v>
@@ -5869,7 +5871,7 @@
     </row>
     <row r="91" spans="1:5" ht="42.75" customHeight="1">
       <c r="A91" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B91" s="9">
         <v>4000</v>
@@ -5880,7 +5882,7 @@
     </row>
     <row r="92" spans="1:5" ht="42.75" customHeight="1">
       <c r="A92" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B92" s="9">
         <v>4000</v>
@@ -5891,7 +5893,7 @@
     </row>
     <row r="93" spans="1:5" ht="42.75" customHeight="1">
       <c r="A93" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B93" s="9">
         <v>4000</v>
@@ -5902,7 +5904,7 @@
     </row>
     <row r="94" spans="1:5" ht="42.75" customHeight="1">
       <c r="A94" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B94" s="9">
         <v>4000</v>
@@ -5913,7 +5915,7 @@
     </row>
     <row r="95" spans="1:5" ht="42.75" customHeight="1">
       <c r="A95" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95" s="9">
         <v>4000</v>
@@ -5924,7 +5926,7 @@
     </row>
     <row r="96" spans="1:5" ht="42.75" customHeight="1">
       <c r="A96" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96" s="9">
         <v>4000</v>
@@ -5935,7 +5937,7 @@
     </row>
     <row r="97" spans="1:5" ht="42.75" customHeight="1">
       <c r="A97" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B97" s="9">
         <v>4000</v>
@@ -5946,7 +5948,7 @@
     </row>
     <row r="98" spans="1:5" ht="42.75" customHeight="1">
       <c r="A98" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B98" s="9">
         <v>4000</v>
@@ -5957,7 +5959,7 @@
     </row>
     <row r="99" spans="1:5" ht="42.75" customHeight="1">
       <c r="A99" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B99" s="9">
         <v>4000</v>
@@ -5968,7 +5970,7 @@
     </row>
     <row r="100" spans="1:5" ht="42.75" customHeight="1">
       <c r="A100" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B100" s="9">
         <v>4000</v>
@@ -5979,7 +5981,7 @@
     </row>
     <row r="101" spans="1:5" ht="42.75" customHeight="1">
       <c r="A101" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101" s="9">
         <v>4000</v>
@@ -5990,7 +5992,7 @@
     </row>
     <row r="102" spans="1:5" ht="42.75" customHeight="1">
       <c r="A102" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B102" s="9">
         <v>4000</v>
@@ -6001,7 +6003,7 @@
     </row>
     <row r="103" spans="1:5" ht="42.75" customHeight="1">
       <c r="A103" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B103" s="9">
         <v>4000</v>
@@ -6012,7 +6014,7 @@
     </row>
     <row r="104" spans="1:5" ht="42.75" customHeight="1">
       <c r="A104" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B104" s="9">
         <v>4000</v>
@@ -6023,7 +6025,7 @@
     </row>
     <row r="105" spans="1:5" ht="42.75" customHeight="1">
       <c r="A105" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="9">
         <v>2000</v>
@@ -6034,7 +6036,7 @@
     </row>
     <row r="106" spans="1:5" ht="42.75" customHeight="1">
       <c r="A106" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B106" s="9">
         <v>2000</v>
@@ -6045,7 +6047,7 @@
     </row>
     <row r="107" spans="1:5" ht="42.75" customHeight="1">
       <c r="A107" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B107" s="9">
         <v>2000</v>
@@ -6056,7 +6058,7 @@
     </row>
     <row r="108" spans="1:5" ht="42.75" customHeight="1">
       <c r="A108" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B108" s="9">
         <v>2000</v>
@@ -6067,7 +6069,7 @@
     </row>
     <row r="109" spans="1:5" ht="42.75" customHeight="1">
       <c r="A109" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B109" s="9">
         <v>2000</v>
@@ -6078,7 +6080,7 @@
     </row>
     <row r="110" spans="1:5" ht="42.75" customHeight="1">
       <c r="A110" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B110" s="9">
         <v>2000</v>
@@ -6089,7 +6091,7 @@
     </row>
     <row r="111" spans="1:5" ht="42.75" customHeight="1">
       <c r="A111" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B111" s="9">
         <v>4000</v>
@@ -6100,7 +6102,7 @@
     </row>
     <row r="112" spans="1:5" ht="42.75" customHeight="1">
       <c r="A112" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B112" s="9">
         <v>4000</v>
@@ -6111,7 +6113,7 @@
     </row>
     <row r="113" spans="1:5" ht="42.75" customHeight="1">
       <c r="A113" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B113" s="9">
         <v>4000</v>
@@ -6122,7 +6124,7 @@
     </row>
     <row r="114" spans="1:5" ht="42.75" customHeight="1">
       <c r="A114" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B114" s="9">
         <v>4000</v>
@@ -6133,7 +6135,7 @@
     </row>
     <row r="115" spans="1:5" ht="42.75" customHeight="1">
       <c r="A115" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B115" s="9">
         <v>4000</v>
@@ -6144,7 +6146,7 @@
     </row>
     <row r="116" spans="1:5" ht="42.75" customHeight="1">
       <c r="A116" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B116" s="9">
         <v>4000</v>
@@ -6155,7 +6157,7 @@
     </row>
     <row r="117" spans="1:5" ht="42.75" customHeight="1">
       <c r="A117" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B117" s="9">
         <v>2000</v>
@@ -6166,7 +6168,7 @@
     </row>
     <row r="118" spans="1:5" ht="42.75" customHeight="1">
       <c r="A118" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B118" s="9">
         <v>4000</v>
@@ -6177,7 +6179,7 @@
     </row>
     <row r="119" spans="1:5" ht="42.75" customHeight="1">
       <c r="A119" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B119" s="9">
         <v>4000</v>
@@ -6188,7 +6190,7 @@
     </row>
     <row r="120" spans="1:5" ht="42.75" customHeight="1">
       <c r="A120" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B120" s="9">
         <v>4000</v>
@@ -6199,7 +6201,7 @@
     </row>
     <row r="121" spans="1:5" ht="42.75" customHeight="1">
       <c r="A121" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B121" s="9">
         <v>4000</v>
@@ -6210,7 +6212,7 @@
     </row>
     <row r="122" spans="1:5" ht="42.75" customHeight="1">
       <c r="A122" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B122" s="9">
         <v>2000</v>
@@ -6221,7 +6223,7 @@
     </row>
     <row r="123" spans="1:5" ht="42.75" customHeight="1">
       <c r="A123" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B123" s="9">
         <v>2000</v>
@@ -6232,7 +6234,7 @@
     </row>
     <row r="124" spans="1:5" ht="42.75" customHeight="1">
       <c r="A124" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B124" s="9">
         <v>2000</v>
@@ -6243,7 +6245,7 @@
     </row>
     <row r="125" spans="1:5" ht="42.75" customHeight="1">
       <c r="A125" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B125" s="9">
         <v>2000</v>
@@ -6254,7 +6256,7 @@
     </row>
     <row r="126" spans="1:5" ht="42.75" customHeight="1">
       <c r="A126" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B126" s="9">
         <v>4000</v>
@@ -6265,7 +6267,7 @@
     </row>
     <row r="127" spans="1:5" ht="42.75" customHeight="1">
       <c r="A127" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B127" s="9">
         <v>4000</v>
@@ -6276,7 +6278,7 @@
     </row>
     <row r="128" spans="1:5" ht="42.75" customHeight="1">
       <c r="A128" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B128" s="9">
         <v>4000</v>
@@ -6287,7 +6289,7 @@
     </row>
     <row r="129" spans="1:5" ht="42.75" customHeight="1">
       <c r="A129" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B129" s="9">
         <v>4000</v>
@@ -6298,7 +6300,7 @@
     </row>
     <row r="130" spans="1:5" ht="42.75" customHeight="1">
       <c r="A130" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B130" s="9">
         <v>4000</v>
@@ -6309,7 +6311,7 @@
     </row>
     <row r="131" spans="1:5" ht="42.75" customHeight="1">
       <c r="A131" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B131" s="9">
         <v>4000</v>
@@ -6320,7 +6322,7 @@
     </row>
     <row r="132" spans="1:5" ht="42.75" customHeight="1">
       <c r="A132" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B132" s="9">
         <v>4000</v>
@@ -6331,7 +6333,7 @@
     </row>
     <row r="133" spans="1:5" ht="42.75" customHeight="1">
       <c r="A133" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B133" s="9">
         <v>4000</v>
@@ -6342,7 +6344,7 @@
     </row>
     <row r="134" spans="1:5" ht="42.75" customHeight="1">
       <c r="A134" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B134" s="9">
         <v>4000</v>
@@ -6353,7 +6355,7 @@
     </row>
     <row r="135" spans="1:5" ht="42.75" customHeight="1">
       <c r="A135" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B135" s="9">
         <v>4000</v>
@@ -6364,7 +6366,7 @@
     </row>
     <row r="136" spans="1:5" ht="42.75" customHeight="1">
       <c r="A136" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B136" s="9">
         <v>4000</v>
@@ -6375,7 +6377,7 @@
     </row>
     <row r="137" spans="1:5" ht="42.75" customHeight="1">
       <c r="A137" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B137" s="9">
         <v>4000</v>
@@ -6386,7 +6388,7 @@
     </row>
     <row r="138" spans="1:5" ht="42.75" customHeight="1">
       <c r="A138" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B138" s="9">
         <v>4000</v>
@@ -6397,7 +6399,7 @@
     </row>
     <row r="139" spans="1:5" ht="42.75" customHeight="1">
       <c r="A139" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B139" s="9">
         <v>4000</v>
@@ -6408,7 +6410,7 @@
     </row>
     <row r="140" spans="1:5" ht="42.75" customHeight="1">
       <c r="A140" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B140" s="9">
         <v>4000</v>
@@ -6419,7 +6421,7 @@
     </row>
     <row r="141" spans="1:5" ht="42.75" customHeight="1">
       <c r="A141" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B141" s="9">
         <v>2000</v>
@@ -6430,7 +6432,7 @@
     </row>
     <row r="142" spans="1:5" ht="42.75" customHeight="1">
       <c r="A142" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B142" s="9">
         <v>2000</v>
@@ -6441,7 +6443,7 @@
     </row>
     <row r="143" spans="1:5" ht="42.75" customHeight="1">
       <c r="A143" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B143" s="9">
         <v>2000</v>
@@ -6452,7 +6454,7 @@
     </row>
     <row r="144" spans="1:5" ht="42.75" customHeight="1">
       <c r="A144" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B144" s="9">
         <v>2000</v>
@@ -6463,7 +6465,7 @@
     </row>
     <row r="145" spans="1:5" ht="42.75" customHeight="1">
       <c r="A145" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B145" s="9">
         <v>2000</v>
@@ -6474,7 +6476,7 @@
     </row>
     <row r="146" spans="1:5" ht="42.75" customHeight="1">
       <c r="A146" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B146" s="9">
         <v>2000</v>
@@ -6485,7 +6487,7 @@
     </row>
     <row r="147" spans="1:5" ht="42.75" customHeight="1">
       <c r="A147" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B147" s="9">
         <v>2000</v>
@@ -6496,7 +6498,7 @@
     </row>
     <row r="148" spans="1:5" ht="42.75" customHeight="1">
       <c r="A148" s="19" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B148" s="9">
         <v>2000</v>
@@ -6507,7 +6509,7 @@
     </row>
     <row r="149" spans="1:5" ht="42.75" customHeight="1">
       <c r="A149" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149" s="9">
         <v>2000</v>
@@ -6518,7 +6520,7 @@
     </row>
     <row r="150" spans="1:5" ht="42.75" customHeight="1">
       <c r="A150" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150" s="9">
         <v>2000</v>
@@ -6529,7 +6531,7 @@
     </row>
     <row r="151" spans="1:5" ht="42.75" customHeight="1">
       <c r="A151" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151" s="9">
         <v>2000</v>
@@ -6540,7 +6542,7 @@
     </row>
     <row r="152" spans="1:5" ht="42.75" customHeight="1">
       <c r="A152" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152" s="9">
         <v>2000</v>
@@ -6551,7 +6553,7 @@
     </row>
     <row r="153" spans="1:5" ht="42.75" customHeight="1">
       <c r="A153" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B153" s="9">
         <v>2000</v>
@@ -6562,7 +6564,7 @@
     </row>
     <row r="154" spans="1:5" ht="42.75" customHeight="1">
       <c r="A154" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B154" s="9">
         <v>2000</v>
@@ -6573,7 +6575,7 @@
     </row>
     <row r="155" spans="1:5" ht="42.75" customHeight="1">
       <c r="A155" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B155" s="9">
         <v>2000</v>
@@ -6584,7 +6586,7 @@
     </row>
     <row r="156" spans="1:5" ht="42.75" customHeight="1">
       <c r="A156" s="19" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B156" s="9">
         <v>2000</v>
@@ -6595,7 +6597,7 @@
     </row>
     <row r="157" spans="1:5" ht="42.75" customHeight="1">
       <c r="A157" s="19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B157" s="9">
         <v>2000</v>
@@ -6606,7 +6608,7 @@
     </row>
     <row r="158" spans="1:5" ht="42.75" customHeight="1">
       <c r="A158" s="19" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B158" s="9">
         <v>2000</v>
@@ -6617,7 +6619,7 @@
     </row>
     <row r="159" spans="1:5" ht="42.75" customHeight="1">
       <c r="A159" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B159" s="9">
         <v>4000</v>
@@ -6628,7 +6630,7 @@
     </row>
     <row r="160" spans="1:5" ht="42.75" customHeight="1">
       <c r="A160" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B160" s="9">
         <v>2000</v>
@@ -6639,7 +6641,7 @@
     </row>
     <row r="161" spans="1:5" ht="42.75" customHeight="1">
       <c r="A161" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B161" s="9">
         <v>4000</v>
@@ -6650,7 +6652,7 @@
     </row>
     <row r="162" spans="1:5" ht="42.75" customHeight="1">
       <c r="A162" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B162" s="9">
         <v>4000</v>
@@ -6661,7 +6663,7 @@
     </row>
     <row r="163" spans="1:5" ht="42.75" customHeight="1">
       <c r="A163" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B163" s="9">
         <v>4000</v>
@@ -6672,7 +6674,7 @@
     </row>
     <row r="164" spans="1:5" ht="42.75" customHeight="1">
       <c r="A164" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B164" s="9">
         <v>4000</v>
@@ -6683,7 +6685,7 @@
     </row>
     <row r="165" spans="1:5" ht="42.75" customHeight="1">
       <c r="A165" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B165" s="9">
         <v>4000</v>
@@ -6694,7 +6696,7 @@
     </row>
     <row r="166" spans="1:5" ht="42.75" customHeight="1">
       <c r="A166" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B166" s="9">
         <v>4000</v>
@@ -6705,7 +6707,7 @@
     </row>
     <row r="167" spans="1:5" ht="42.75" customHeight="1">
       <c r="A167" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B167" s="9">
         <v>4000</v>
@@ -6716,7 +6718,7 @@
     </row>
     <row r="168" spans="1:5" ht="42.75" customHeight="1">
       <c r="A168" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B168" s="9">
         <v>4000</v>
@@ -6727,7 +6729,7 @@
     </row>
     <row r="169" spans="1:5" ht="42.75" customHeight="1">
       <c r="A169" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B169" s="9">
         <v>4000</v>
@@ -6738,7 +6740,7 @@
     </row>
     <row r="170" spans="1:5" ht="42.75" customHeight="1">
       <c r="A170" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B170" s="9">
         <v>4000</v>
@@ -6749,7 +6751,7 @@
     </row>
     <row r="171" spans="1:5" ht="42.75" customHeight="1">
       <c r="A171" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B171" s="9">
         <v>4000</v>
@@ -6760,7 +6762,7 @@
     </row>
     <row r="172" spans="1:5" ht="42.75" customHeight="1">
       <c r="A172" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B172" s="9">
         <v>4000</v>
@@ -6771,7 +6773,7 @@
     </row>
     <row r="173" spans="1:5" ht="42.75" customHeight="1">
       <c r="A173" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B173" s="9">
         <v>4000</v>
@@ -6782,7 +6784,7 @@
     </row>
     <row r="174" spans="1:5" ht="42.75" customHeight="1">
       <c r="A174" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B174" s="9">
         <v>4000</v>
@@ -6793,7 +6795,7 @@
     </row>
     <row r="175" spans="1:5" ht="42.75" customHeight="1">
       <c r="A175" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B175" s="9">
         <v>4000</v>
@@ -6804,7 +6806,7 @@
     </row>
     <row r="176" spans="1:5" ht="42.75" customHeight="1">
       <c r="A176" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B176" s="9">
         <v>2000</v>
@@ -6815,7 +6817,7 @@
     </row>
     <row r="177" spans="1:5" ht="42.75" customHeight="1">
       <c r="A177" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B177" s="9">
         <v>2000</v>
@@ -6826,7 +6828,7 @@
     </row>
     <row r="178" spans="1:5" ht="42.75" customHeight="1">
       <c r="A178" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B178" s="9">
         <v>2000</v>
@@ -6837,7 +6839,7 @@
     </row>
     <row r="179" spans="1:5" ht="42.75" customHeight="1">
       <c r="A179" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B179" s="9">
         <v>2000</v>
@@ -6848,7 +6850,7 @@
     </row>
     <row r="180" spans="1:5" ht="42.75" customHeight="1">
       <c r="A180" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B180" s="9">
         <v>4000</v>
@@ -6859,7 +6861,7 @@
     </row>
     <row r="181" spans="1:5" ht="42.75" customHeight="1">
       <c r="A181" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B181" s="9">
         <v>4000</v>
@@ -6870,7 +6872,7 @@
     </row>
     <row r="182" spans="1:5" ht="42.75" customHeight="1">
       <c r="A182" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B182" s="9">
         <v>4000</v>
@@ -6881,7 +6883,7 @@
     </row>
     <row r="183" spans="1:5" ht="42.75" customHeight="1">
       <c r="A183" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B183" s="9">
         <v>4000</v>
@@ -6892,7 +6894,7 @@
     </row>
     <row r="184" spans="1:5" ht="42.75" customHeight="1">
       <c r="A184" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B184" s="9">
         <v>4000</v>
@@ -6903,7 +6905,7 @@
     </row>
     <row r="185" spans="1:5" ht="42.75" customHeight="1">
       <c r="A185" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B185" s="9">
         <v>4000</v>
@@ -6914,7 +6916,7 @@
     </row>
     <row r="186" spans="1:5" ht="42.75" customHeight="1">
       <c r="A186" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B186" s="9">
         <v>4000</v>
@@ -6925,7 +6927,7 @@
     </row>
     <row r="187" spans="1:5" ht="42.75" customHeight="1">
       <c r="A187" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B187" s="9">
         <v>4000</v>
@@ -6936,7 +6938,7 @@
     </row>
     <row r="188" spans="1:5" ht="42.75" customHeight="1">
       <c r="A188" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B188" s="9">
         <v>4000</v>
@@ -6947,7 +6949,7 @@
     </row>
     <row r="189" spans="1:5" ht="42.75" customHeight="1">
       <c r="A189" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B189" s="9">
         <v>4000</v>
@@ -6958,7 +6960,7 @@
     </row>
     <row r="190" spans="1:5" ht="42.75" customHeight="1">
       <c r="A190" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B190" s="9">
         <v>4000</v>
@@ -6969,7 +6971,7 @@
     </row>
     <row r="191" spans="1:5" ht="42.75" customHeight="1">
       <c r="A191" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B191" s="9">
         <v>4000</v>
@@ -6980,7 +6982,7 @@
     </row>
     <row r="192" spans="1:5" ht="42.75" customHeight="1">
       <c r="A192" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B192" s="9">
         <v>4000</v>
@@ -6991,7 +6993,7 @@
     </row>
     <row r="193" spans="1:5" ht="42.75" customHeight="1">
       <c r="A193" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B193" s="9">
         <v>4000</v>
@@ -7002,7 +7004,7 @@
     </row>
     <row r="194" spans="1:5" ht="42.75" customHeight="1">
       <c r="A194" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B194" s="9">
         <v>4000</v>
@@ -7013,7 +7015,7 @@
     </row>
     <row r="195" spans="1:5" ht="42.75" customHeight="1">
       <c r="A195" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B195" s="9">
         <v>4000</v>
@@ -7024,7 +7026,7 @@
     </row>
     <row r="196" spans="1:5" ht="42.75" customHeight="1">
       <c r="A196" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B196" s="9">
         <v>4000</v>
@@ -7035,7 +7037,7 @@
     </row>
     <row r="197" spans="1:5" ht="42.75" customHeight="1">
       <c r="A197" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B197" s="9">
         <v>4000</v>
@@ -7046,7 +7048,7 @@
     </row>
     <row r="198" spans="1:5" ht="42.75" customHeight="1">
       <c r="A198" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B198" s="9">
         <v>4000</v>
@@ -7057,7 +7059,7 @@
     </row>
     <row r="199" spans="1:5" ht="42.75" customHeight="1">
       <c r="A199" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B199" s="9">
         <v>4000</v>
@@ -7068,7 +7070,7 @@
     </row>
     <row r="200" spans="1:5" ht="42.75" customHeight="1">
       <c r="A200" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B200" s="9">
         <v>4000</v>
@@ -7079,7 +7081,7 @@
     </row>
     <row r="201" spans="1:5" ht="42.75" customHeight="1">
       <c r="A201" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B201" s="9">
         <v>4000</v>
@@ -7090,7 +7092,7 @@
     </row>
     <row r="202" spans="1:5" ht="42.75" customHeight="1">
       <c r="A202" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B202" s="9">
         <v>4000</v>
@@ -7101,7 +7103,7 @@
     </row>
     <row r="203" spans="1:5" ht="42.75" customHeight="1">
       <c r="A203" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B203" s="9">
         <v>4000</v>
@@ -7112,7 +7114,7 @@
     </row>
     <row r="204" spans="1:5" ht="42.75" customHeight="1">
       <c r="A204" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B204" s="9">
         <v>4000</v>
@@ -7123,7 +7125,7 @@
     </row>
     <row r="205" spans="1:5" ht="42.75" customHeight="1">
       <c r="A205" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B205" s="9">
         <v>4000</v>
@@ -7134,7 +7136,7 @@
     </row>
     <row r="206" spans="1:5" ht="42.75" customHeight="1">
       <c r="A206" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B206" s="9">
         <v>4000</v>
@@ -7145,7 +7147,7 @@
     </row>
     <row r="207" spans="1:5" ht="42.75" customHeight="1">
       <c r="A207" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B207" s="9">
         <v>4000</v>
@@ -7156,7 +7158,7 @@
     </row>
     <row r="208" spans="1:5" ht="42.75" customHeight="1">
       <c r="A208" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B208" s="9">
         <v>4000</v>
@@ -7167,7 +7169,7 @@
     </row>
     <row r="209" spans="1:5" ht="42.75" customHeight="1">
       <c r="A209" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B209" s="9">
         <v>4000</v>
@@ -7178,7 +7180,7 @@
     </row>
     <row r="210" spans="1:5" ht="42.75" customHeight="1">
       <c r="A210" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B210" s="9">
         <v>4000</v>
@@ -7189,7 +7191,7 @@
     </row>
     <row r="211" spans="1:5" ht="42.75" customHeight="1">
       <c r="A211" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B211" s="9">
         <v>4000</v>
@@ -7200,7 +7202,7 @@
     </row>
     <row r="212" spans="1:5" ht="42.75" customHeight="1">
       <c r="A212" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B212" s="9">
         <v>4000</v>
@@ -7211,7 +7213,7 @@
     </row>
     <row r="213" spans="1:5" ht="42.75" customHeight="1">
       <c r="A213" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B213" s="9">
         <v>4000</v>
@@ -7222,7 +7224,7 @@
     </row>
     <row r="214" spans="1:5" ht="42.75" customHeight="1">
       <c r="A214" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B214" s="9">
         <v>4000</v>
@@ -7233,7 +7235,7 @@
     </row>
     <row r="215" spans="1:5" ht="42.75" customHeight="1">
       <c r="A215" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B215" s="9">
         <v>4000</v>
@@ -7244,7 +7246,7 @@
     </row>
     <row r="216" spans="1:5" ht="42.75" customHeight="1">
       <c r="A216" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B216" s="9">
         <v>4000</v>
@@ -7255,7 +7257,7 @@
     </row>
     <row r="217" spans="1:5" ht="42.75" customHeight="1">
       <c r="A217" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B217" s="9">
         <v>4000</v>
@@ -7266,7 +7268,7 @@
     </row>
     <row r="218" spans="1:5" ht="42.75" customHeight="1">
       <c r="A218" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B218" s="9">
         <v>4000</v>
@@ -7277,7 +7279,7 @@
     </row>
     <row r="219" spans="1:5" ht="42.75" customHeight="1">
       <c r="A219" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B219" s="9">
         <v>4000</v>
@@ -7288,7 +7290,7 @@
     </row>
     <row r="220" spans="1:5" ht="42.75" customHeight="1">
       <c r="A220" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B220" s="9">
         <v>4000</v>
@@ -7299,7 +7301,7 @@
     </row>
     <row r="221" spans="1:5" ht="42.75" customHeight="1">
       <c r="A221" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B221" s="9">
         <v>4000</v>
@@ -7310,7 +7312,7 @@
     </row>
     <row r="222" spans="1:5" ht="42.75" customHeight="1">
       <c r="A222" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B222" s="9">
         <v>4000</v>
@@ -7321,7 +7323,7 @@
     </row>
     <row r="223" spans="1:5" ht="42.75" customHeight="1">
       <c r="A223" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B223" s="9">
         <v>4000</v>
@@ -7332,7 +7334,7 @@
     </row>
     <row r="224" spans="1:5" ht="42.75" customHeight="1">
       <c r="A224" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B224" s="9">
         <v>4000</v>
@@ -7343,7 +7345,7 @@
     </row>
     <row r="225" spans="1:5" ht="42.75" customHeight="1">
       <c r="A225" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B225" s="9">
         <v>4000</v>
@@ -7354,7 +7356,7 @@
     </row>
     <row r="226" spans="1:5" ht="42.75" customHeight="1">
       <c r="A226" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B226" s="9">
         <v>2000</v>
@@ -7365,7 +7367,7 @@
     </row>
     <row r="227" spans="1:5" ht="42.75" customHeight="1">
       <c r="A227" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B227" s="9">
         <v>2000</v>
@@ -7376,7 +7378,7 @@
     </row>
     <row r="228" spans="1:5" ht="42.75" customHeight="1">
       <c r="A228" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B228" s="9">
         <v>2000</v>
@@ -7387,7 +7389,7 @@
     </row>
     <row r="229" spans="1:5" ht="42.75" customHeight="1">
       <c r="A229" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B229" s="9">
         <v>2000</v>
@@ -7398,7 +7400,7 @@
     </row>
     <row r="230" spans="1:5" ht="42.75" customHeight="1">
       <c r="A230" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B230" s="9">
         <v>2000</v>
@@ -7409,7 +7411,7 @@
     </row>
     <row r="231" spans="1:5" ht="42.75" customHeight="1">
       <c r="A231" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B231" s="9">
         <v>2000</v>
@@ -7420,7 +7422,7 @@
     </row>
     <row r="232" spans="1:5" ht="42.75" customHeight="1">
       <c r="A232" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B232" s="9">
         <v>2000</v>
@@ -7431,7 +7433,7 @@
     </row>
     <row r="233" spans="1:5" ht="42.75" customHeight="1">
       <c r="A233" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B233" s="9">
         <v>2000</v>
@@ -7442,7 +7444,7 @@
     </row>
     <row r="234" spans="1:5" ht="42.75" customHeight="1">
       <c r="A234" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B234" s="9">
         <v>2000</v>
@@ -7453,7 +7455,7 @@
     </row>
     <row r="235" spans="1:5" ht="42.75" customHeight="1">
       <c r="A235" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B235" s="9">
         <v>2000</v>
@@ -7464,7 +7466,7 @@
     </row>
     <row r="236" spans="1:5" ht="42.75" customHeight="1">
       <c r="A236" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B236" s="9">
         <v>2000</v>
@@ -7475,7 +7477,7 @@
     </row>
     <row r="237" spans="1:5" ht="42.75" customHeight="1">
       <c r="A237" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B237" s="9">
         <v>2000</v>
@@ -7486,7 +7488,7 @@
     </row>
     <row r="238" spans="1:5" ht="42.75" customHeight="1">
       <c r="A238" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B238" s="9">
         <v>2000</v>
@@ -7497,7 +7499,7 @@
     </row>
     <row r="239" spans="1:5" ht="42.75" customHeight="1">
       <c r="A239" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B239" s="9">
         <v>2000</v>
@@ -7508,7 +7510,7 @@
     </row>
     <row r="240" spans="1:5" ht="42.75" customHeight="1">
       <c r="A240" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B240" s="9">
         <v>2000</v>
@@ -7519,7 +7521,7 @@
     </row>
     <row r="241" spans="1:5" ht="42.75" customHeight="1">
       <c r="A241" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B241" s="9">
         <v>2000</v>
@@ -7530,7 +7532,7 @@
     </row>
     <row r="242" spans="1:5" ht="42.75" customHeight="1">
       <c r="A242" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B242" s="9">
         <v>2000</v>
@@ -7541,7 +7543,7 @@
     </row>
     <row r="243" spans="1:5" ht="42.75" customHeight="1">
       <c r="A243" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B243" s="9">
         <v>2000</v>
@@ -7552,7 +7554,7 @@
     </row>
     <row r="244" spans="1:5" ht="42.75" customHeight="1">
       <c r="A244" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B244" s="9">
         <v>2000</v>
@@ -7563,7 +7565,7 @@
     </row>
     <row r="245" spans="1:5" ht="42.75" customHeight="1">
       <c r="A245" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B245" s="9">
         <v>2000</v>
@@ -7574,7 +7576,7 @@
     </row>
     <row r="246" spans="1:5" ht="42.75" customHeight="1">
       <c r="A246" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B246" s="9">
         <v>2000</v>
@@ -7585,7 +7587,7 @@
     </row>
     <row r="247" spans="1:5" ht="42.75" customHeight="1">
       <c r="A247" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B247" s="9">
         <v>2000</v>
@@ -7596,7 +7598,7 @@
     </row>
     <row r="248" spans="1:5" ht="42.75" customHeight="1">
       <c r="A248" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B248" s="9">
         <v>2000</v>
@@ -7607,7 +7609,7 @@
     </row>
     <row r="249" spans="1:5" ht="42.75" customHeight="1">
       <c r="A249" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B249" s="9">
         <v>2000</v>
@@ -7618,7 +7620,7 @@
     </row>
     <row r="250" spans="1:5" ht="42.75" customHeight="1">
       <c r="A250" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B250" s="9">
         <v>2000</v>
@@ -7629,7 +7631,7 @@
     </row>
     <row r="251" spans="1:5" ht="42.75" customHeight="1">
       <c r="A251" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B251" s="9">
         <v>2000</v>
@@ -7640,7 +7642,7 @@
     </row>
     <row r="252" spans="1:5" ht="42.75" customHeight="1">
       <c r="A252" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B252" s="9">
         <v>2000</v>
@@ -7651,7 +7653,7 @@
     </row>
     <row r="253" spans="1:5" ht="42.75" customHeight="1">
       <c r="A253" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B253" s="9">
         <v>2000</v>
@@ -7662,7 +7664,7 @@
     </row>
     <row r="254" spans="1:5" ht="42.75" customHeight="1">
       <c r="A254" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B254" s="9">
         <v>2000</v>
@@ -7673,7 +7675,7 @@
     </row>
     <row r="255" spans="1:5" ht="42.75" customHeight="1">
       <c r="A255" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B255" s="9">
         <v>2000</v>
@@ -7684,7 +7686,7 @@
     </row>
     <row r="256" spans="1:5" ht="42.75" customHeight="1">
       <c r="A256" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B256" s="9">
         <v>2000</v>
@@ -7695,7 +7697,7 @@
     </row>
     <row r="257" spans="1:5" ht="42.75" customHeight="1">
       <c r="A257" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B257" s="9">
         <v>2000</v>
@@ -7706,7 +7708,7 @@
     </row>
     <row r="258" spans="1:5" ht="42.75" customHeight="1">
       <c r="A258" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B258" s="9">
         <v>2000</v>
@@ -7717,7 +7719,7 @@
     </row>
     <row r="259" spans="1:5" ht="42.75" customHeight="1">
       <c r="A259" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B259" s="9">
         <v>2000</v>
@@ -7728,7 +7730,7 @@
     </row>
     <row r="260" spans="1:5" ht="42.75" customHeight="1">
       <c r="A260" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B260" s="9">
         <v>2000</v>
@@ -7739,7 +7741,7 @@
     </row>
     <row r="261" spans="1:5" ht="42.75" customHeight="1">
       <c r="A261" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B261" s="9">
         <v>2000</v>
@@ -7750,7 +7752,7 @@
     </row>
     <row r="262" spans="1:5" ht="42.75" customHeight="1">
       <c r="A262" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B262" s="9">
         <v>2000</v>
@@ -7761,7 +7763,7 @@
     </row>
     <row r="263" spans="1:5" ht="42.75" customHeight="1">
       <c r="A263" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B263" s="9">
         <v>2000</v>
@@ -7772,7 +7774,7 @@
     </row>
     <row r="264" spans="1:5" ht="42.75" customHeight="1">
       <c r="A264" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B264" s="9">
         <v>2000</v>
@@ -7783,7 +7785,7 @@
     </row>
     <row r="265" spans="1:5" ht="42.75" customHeight="1">
       <c r="A265" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B265" s="9">
         <v>2000</v>
@@ -7794,7 +7796,7 @@
     </row>
     <row r="266" spans="1:5" ht="42.75" customHeight="1">
       <c r="A266" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B266" s="9">
         <v>2000</v>
@@ -7805,7 +7807,7 @@
     </row>
     <row r="267" spans="1:5" ht="42.75" customHeight="1">
       <c r="A267" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B267" s="9">
         <v>2000</v>
@@ -7816,7 +7818,7 @@
     </row>
     <row r="268" spans="1:5" ht="42.75" customHeight="1">
       <c r="A268" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B268" s="9">
         <v>2000</v>
@@ -7827,7 +7829,7 @@
     </row>
     <row r="269" spans="1:5" ht="42.75" customHeight="1">
       <c r="A269" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B269" s="9">
         <v>2000</v>
@@ -7838,7 +7840,7 @@
     </row>
     <row r="270" spans="1:5" ht="42.75" customHeight="1">
       <c r="A270" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B270" s="9">
         <v>2000</v>
@@ -7849,7 +7851,7 @@
     </row>
     <row r="271" spans="1:5" ht="42.75" customHeight="1">
       <c r="A271" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B271" s="9">
         <v>2000</v>
@@ -7860,7 +7862,7 @@
     </row>
     <row r="272" spans="1:5" ht="42.75" customHeight="1">
       <c r="A272" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B272" s="9">
         <v>2000</v>
@@ -7871,7 +7873,7 @@
     </row>
     <row r="273" spans="1:5" ht="42.75" customHeight="1">
       <c r="A273" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B273" s="9">
         <v>2000</v>
@@ -7882,7 +7884,7 @@
     </row>
     <row r="274" spans="1:5" ht="42.75" customHeight="1">
       <c r="A274" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B274" s="9">
         <v>2000</v>
@@ -7893,7 +7895,7 @@
     </row>
     <row r="275" spans="1:5" ht="42.75" customHeight="1">
       <c r="A275" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B275" s="9">
         <v>2000</v>
@@ -7904,7 +7906,7 @@
     </row>
     <row r="276" spans="1:5" ht="42.75" customHeight="1">
       <c r="A276" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B276" s="9">
         <v>2000</v>
@@ -7915,7 +7917,7 @@
     </row>
     <row r="277" spans="1:5" ht="42.75" customHeight="1">
       <c r="A277" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B277" s="9">
         <v>2000</v>
@@ -7926,7 +7928,7 @@
     </row>
     <row r="278" spans="1:5" ht="42.75" customHeight="1">
       <c r="A278" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B278" s="9">
         <v>2000</v>
@@ -7937,7 +7939,7 @@
     </row>
     <row r="279" spans="1:5" ht="42.75" customHeight="1">
       <c r="A279" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B279" s="9">
         <v>2000</v>
@@ -7948,7 +7950,7 @@
     </row>
     <row r="280" spans="1:5" ht="42.75" customHeight="1">
       <c r="A280" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B280" s="9">
         <v>2000</v>
@@ -7959,7 +7961,7 @@
     </row>
     <row r="281" spans="1:5" ht="42.75" customHeight="1">
       <c r="A281" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B281" s="9">
         <v>2000</v>
@@ -7970,7 +7972,7 @@
     </row>
     <row r="282" spans="1:5" ht="42.75" customHeight="1">
       <c r="A282" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B282" s="9">
         <v>2000</v>
@@ -7981,7 +7983,7 @@
     </row>
     <row r="283" spans="1:5" ht="42.75" customHeight="1">
       <c r="A283" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B283" s="9">
         <v>2000</v>
@@ -7992,7 +7994,7 @@
     </row>
     <row r="284" spans="1:5" ht="42.75" customHeight="1">
       <c r="A284" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B284" s="9">
         <v>2000</v>
@@ -8003,7 +8005,7 @@
     </row>
     <row r="285" spans="1:5" ht="42.75" customHeight="1">
       <c r="A285" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B285" s="9">
         <v>2000</v>
@@ -8014,7 +8016,7 @@
     </row>
     <row r="286" spans="1:5" ht="42.75" customHeight="1">
       <c r="A286" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B286" s="9">
         <v>2000</v>
@@ -8025,7 +8027,7 @@
     </row>
     <row r="287" spans="1:5" ht="42.75" customHeight="1">
       <c r="A287" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B287" s="9">
         <v>2000</v>
@@ -8036,7 +8038,7 @@
     </row>
     <row r="288" spans="1:5" ht="42.75" customHeight="1">
       <c r="A288" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B288" s="9">
         <v>2000</v>
@@ -8047,7 +8049,7 @@
     </row>
     <row r="289" spans="1:5" ht="42.75" customHeight="1">
       <c r="A289" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B289" s="9">
         <v>2000</v>
@@ -8058,7 +8060,7 @@
     </row>
     <row r="290" spans="1:5" ht="42.75" customHeight="1">
       <c r="A290" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B290" s="9">
         <v>2000</v>
@@ -8069,7 +8071,7 @@
     </row>
     <row r="291" spans="1:5" ht="42.75" customHeight="1">
       <c r="A291" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B291" s="9">
         <v>2000</v>
@@ -8080,7 +8082,7 @@
     </row>
     <row r="292" spans="1:5" ht="42.75" customHeight="1">
       <c r="A292" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B292" s="9">
         <v>2000</v>
@@ -8091,7 +8093,7 @@
     </row>
     <row r="293" spans="1:5" ht="42.75" customHeight="1">
       <c r="A293" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B293" s="9">
         <v>2000</v>
@@ -8102,7 +8104,7 @@
     </row>
     <row r="294" spans="1:5" ht="42.75" customHeight="1">
       <c r="A294" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B294" s="9">
         <v>2000</v>
@@ -8113,7 +8115,7 @@
     </row>
     <row r="295" spans="1:5" ht="42.75" customHeight="1">
       <c r="A295" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B295" s="9">
         <v>2000</v>
@@ -8124,7 +8126,7 @@
     </row>
     <row r="296" spans="1:5" ht="42.75" customHeight="1">
       <c r="A296" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B296" s="9">
         <v>2000</v>
@@ -8135,7 +8137,7 @@
     </row>
     <row r="297" spans="1:5" ht="42.75" customHeight="1">
       <c r="A297" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B297" s="9">
         <v>2000</v>
@@ -8146,7 +8148,7 @@
     </row>
     <row r="298" spans="1:5" ht="42.75" customHeight="1">
       <c r="A298" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B298" s="9">
         <v>2000</v>
@@ -8157,7 +8159,7 @@
     </row>
     <row r="299" spans="1:5" ht="42.75" customHeight="1">
       <c r="A299" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B299" s="9">
         <v>2000</v>
@@ -8168,7 +8170,7 @@
     </row>
     <row r="300" spans="1:5" ht="42.75" customHeight="1">
       <c r="A300" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B300" s="9">
         <v>2000</v>
@@ -8179,7 +8181,7 @@
     </row>
     <row r="301" spans="1:5" ht="42.75" customHeight="1">
       <c r="A301" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B301" s="9">
         <v>2000</v>
@@ -8190,7 +8192,7 @@
     </row>
     <row r="302" spans="1:5" ht="42.75" customHeight="1">
       <c r="A302" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B302" s="9">
         <v>2000</v>
@@ -8201,7 +8203,7 @@
     </row>
     <row r="303" spans="1:5" ht="42.75" customHeight="1">
       <c r="A303" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B303" s="9">
         <v>2000</v>
@@ -8212,7 +8214,7 @@
     </row>
     <row r="304" spans="1:5" ht="42.75" customHeight="1">
       <c r="A304" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B304" s="9">
         <v>2000</v>
@@ -8223,7 +8225,7 @@
     </row>
     <row r="305" spans="1:5" ht="42.75" customHeight="1">
       <c r="A305" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B305" s="9">
         <v>2000</v>
@@ -8234,7 +8236,7 @@
     </row>
     <row r="306" spans="1:5" ht="42.75" customHeight="1">
       <c r="A306" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B306" s="9">
         <v>2000</v>
@@ -8245,7 +8247,7 @@
     </row>
     <row r="307" spans="1:5" ht="42.75" customHeight="1">
       <c r="A307" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B307" s="9">
         <v>2000</v>
@@ -8256,7 +8258,7 @@
     </row>
     <row r="308" spans="1:5" ht="42.75" customHeight="1">
       <c r="A308" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B308" s="9">
         <v>2000</v>
@@ -8267,7 +8269,7 @@
     </row>
     <row r="309" spans="1:5" ht="42.75" customHeight="1">
       <c r="A309" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B309" s="9">
         <v>2000</v>
@@ -8278,7 +8280,7 @@
     </row>
     <row r="310" spans="1:5" ht="42.75" customHeight="1">
       <c r="A310" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B310" s="9">
         <v>2000</v>
@@ -8289,7 +8291,7 @@
     </row>
     <row r="311" spans="1:5" ht="42.75" customHeight="1">
       <c r="A311" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B311" s="9">
         <v>2000</v>
@@ -8300,7 +8302,7 @@
     </row>
     <row r="312" spans="1:5" ht="42.75" customHeight="1">
       <c r="A312" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B312" s="9">
         <v>2000</v>
@@ -8311,7 +8313,7 @@
     </row>
     <row r="313" spans="1:5" ht="42.75" customHeight="1">
       <c r="A313" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B313" s="9">
         <v>2000</v>
@@ -8322,7 +8324,7 @@
     </row>
     <row r="314" spans="1:5" ht="42.75" customHeight="1">
       <c r="A314" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B314" s="9">
         <v>2000</v>
@@ -8333,7 +8335,7 @@
     </row>
     <row r="315" spans="1:5" ht="42.75" customHeight="1">
       <c r="A315" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B315" s="9">
         <v>2000</v>
@@ -8344,7 +8346,7 @@
     </row>
     <row r="316" spans="1:5" ht="42.75" customHeight="1">
       <c r="A316" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B316" s="9">
         <v>2000</v>
@@ -8355,7 +8357,7 @@
     </row>
     <row r="317" spans="1:5" ht="42.75" customHeight="1">
       <c r="A317" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B317" s="9">
         <v>2000</v>
@@ -8366,7 +8368,7 @@
     </row>
     <row r="318" spans="1:5" ht="42.75" customHeight="1">
       <c r="A318" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B318" s="9">
         <v>2000</v>
@@ -8377,7 +8379,7 @@
     </row>
     <row r="319" spans="1:5" ht="42.75" customHeight="1">
       <c r="A319" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B319" s="9">
         <v>2000</v>
@@ -8388,7 +8390,7 @@
     </row>
     <row r="320" spans="1:5" ht="42.75" customHeight="1">
       <c r="A320" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B320" s="9">
         <v>2000</v>
@@ -8399,7 +8401,7 @@
     </row>
     <row r="321" spans="1:5" ht="42.75" customHeight="1">
       <c r="A321" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B321" s="9">
         <v>2000</v>
@@ -8410,7 +8412,7 @@
     </row>
     <row r="322" spans="1:5" ht="42.75" customHeight="1">
       <c r="A322" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B322" s="9">
         <v>2000</v>
@@ -8421,7 +8423,7 @@
     </row>
     <row r="323" spans="1:5" ht="42.75" customHeight="1">
       <c r="A323" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B323" s="9">
         <v>2000</v>
@@ -8432,7 +8434,7 @@
     </row>
     <row r="324" spans="1:5" ht="42.75" customHeight="1">
       <c r="A324" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B324" s="9">
         <v>2000</v>
@@ -8443,7 +8445,7 @@
     </row>
     <row r="325" spans="1:5" ht="42.75" customHeight="1">
       <c r="A325" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B325" s="9">
         <v>2000</v>
@@ -8454,7 +8456,7 @@
     </row>
     <row r="326" spans="1:5" ht="42.75" customHeight="1">
       <c r="A326" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B326" s="9">
         <v>2000</v>
@@ -8465,7 +8467,7 @@
     </row>
     <row r="327" spans="1:5" ht="42.75" customHeight="1">
       <c r="A327" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B327" s="9">
         <v>2000</v>
@@ -8476,7 +8478,7 @@
     </row>
     <row r="328" spans="1:5" ht="42.75" customHeight="1">
       <c r="A328" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B328" s="9">
         <v>2000</v>
@@ -8487,7 +8489,7 @@
     </row>
     <row r="329" spans="1:5" ht="42.75" customHeight="1">
       <c r="A329" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B329" s="9">
         <v>2000</v>
@@ -8498,7 +8500,7 @@
     </row>
     <row r="330" spans="1:5" ht="42.75" customHeight="1">
       <c r="A330" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B330" s="9">
         <v>2000</v>
@@ -8509,7 +8511,7 @@
     </row>
     <row r="331" spans="1:5" ht="42.75" customHeight="1">
       <c r="A331" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B331" s="9">
         <v>2000</v>
@@ -8520,7 +8522,7 @@
     </row>
     <row r="332" spans="1:5" ht="42.75" customHeight="1">
       <c r="A332" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B332" s="9">
         <v>2000</v>
@@ -8531,7 +8533,7 @@
     </row>
     <row r="333" spans="1:5" ht="42.75" customHeight="1">
       <c r="A333" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B333" s="9">
         <v>2000</v>
@@ -8542,7 +8544,7 @@
     </row>
     <row r="334" spans="1:5" ht="42.75" customHeight="1">
       <c r="A334" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B334" s="9">
         <v>4000</v>
@@ -8553,7 +8555,7 @@
     </row>
     <row r="335" spans="1:5" ht="42.75" customHeight="1">
       <c r="A335" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B335" s="9">
         <v>4000</v>
@@ -8564,7 +8566,7 @@
     </row>
     <row r="336" spans="1:5" ht="42.75" customHeight="1">
       <c r="A336" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B336" s="9">
         <v>2000</v>
@@ -8575,7 +8577,7 @@
     </row>
     <row r="337" spans="1:5" ht="42.75" customHeight="1">
       <c r="A337" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B337" s="9">
         <v>4000</v>
@@ -8586,7 +8588,7 @@
     </row>
     <row r="338" spans="1:5" ht="42.75" customHeight="1">
       <c r="A338" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B338" s="9">
         <v>2000</v>
@@ -8597,7 +8599,7 @@
     </row>
     <row r="339" spans="1:5" ht="42.75" customHeight="1">
       <c r="A339" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B339" s="9">
         <v>4000</v>
@@ -8608,7 +8610,7 @@
     </row>
     <row r="340" spans="1:5" ht="42.75" customHeight="1">
       <c r="A340" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B340" s="9">
         <v>4000</v>
@@ -8619,7 +8621,7 @@
     </row>
     <row r="341" spans="1:5" ht="42.75" customHeight="1">
       <c r="A341" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B341" s="9">
         <v>4000</v>
@@ -8630,7 +8632,7 @@
     </row>
     <row r="342" spans="1:5" ht="42.75" customHeight="1">
       <c r="A342" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B342" s="9">
         <v>4000</v>
@@ -8641,7 +8643,7 @@
     </row>
     <row r="343" spans="1:5" ht="42.75" customHeight="1">
       <c r="A343" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B343" s="9">
         <v>4000</v>
@@ -8692,19 +8694,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA402FE-2170-234C-BFCB-80F823858BAC}">
   <dimension ref="A1:E310"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="77.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14">
+    <row r="1" spans="1:5" ht="13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8721,26 +8723,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.6">
+    <row r="2" spans="1:5" ht="409.5">
       <c r="A2" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4000</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.5">
+      <c r="A3" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="B2" s="5">
-        <v>4000</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20">
-      <c r="A3" s="8" t="s">
-        <v>319</v>
       </c>
       <c r="B3" s="9">
         <v>4000</v>
@@ -8749,9 +8751,9 @@
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" ht="20">
+    <row r="4" spans="1:5" ht="15.5">
       <c r="A4" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B4" s="9">
         <v>4000</v>
@@ -8760,9 +8762,9 @@
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" ht="20">
+    <row r="5" spans="1:5" ht="15.5">
       <c r="A5" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B5" s="9">
         <v>4000</v>
@@ -8771,9 +8773,9 @@
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5" ht="20">
+    <row r="6" spans="1:5" ht="15.5">
       <c r="A6" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6" s="9">
         <v>4000</v>
@@ -8782,9 +8784,9 @@
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5" ht="20">
+    <row r="7" spans="1:5" ht="15.5">
       <c r="A7" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B7" s="9">
         <v>4000</v>
@@ -8793,9 +8795,9 @@
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" ht="20">
+    <row r="8" spans="1:5" ht="15.5">
       <c r="A8" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B8" s="9">
         <v>4000</v>
@@ -8804,9 +8806,9 @@
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5" ht="20">
+    <row r="9" spans="1:5" ht="15.5">
       <c r="A9" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B9" s="9">
         <v>4000</v>
@@ -8815,9 +8817,9 @@
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" ht="20">
+    <row r="10" spans="1:5" ht="15.5">
       <c r="A10" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B10" s="9">
         <v>2000</v>
@@ -8826,9 +8828,9 @@
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
     </row>
-    <row r="11" spans="1:5" ht="20">
+    <row r="11" spans="1:5" ht="15.5">
       <c r="A11" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B11" s="9">
         <v>2000</v>
@@ -8837,9 +8839,9 @@
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:5" ht="20">
+    <row r="12" spans="1:5" ht="15.5">
       <c r="A12" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B12" s="9">
         <v>2000</v>
@@ -8848,9 +8850,9 @@
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:5" ht="20">
+    <row r="13" spans="1:5" ht="15.5">
       <c r="A13" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B13" s="9">
         <v>2000</v>
@@ -8859,9 +8861,9 @@
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:5" ht="20">
+    <row r="14" spans="1:5" ht="15.5">
       <c r="A14" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B14" s="9">
         <v>2000</v>
@@ -8870,9 +8872,9 @@
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" ht="20">
+    <row r="15" spans="1:5" ht="15.5">
       <c r="A15" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B15" s="9">
         <v>4000</v>
@@ -8881,9 +8883,9 @@
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:5" ht="20">
+    <row r="16" spans="1:5" ht="15.5">
       <c r="A16" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B16" s="9">
         <v>4000</v>
@@ -8892,9 +8894,9 @@
       <c r="D16" s="11"/>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="1:5" ht="20">
+    <row r="17" spans="1:5" ht="15.5">
       <c r="A17" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B17" s="9">
         <v>4000</v>
@@ -8903,9 +8905,9 @@
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="1:5" ht="20">
+    <row r="18" spans="1:5" ht="15.5">
       <c r="A18" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B18" s="9">
         <v>4000</v>
@@ -8914,9 +8916,9 @@
       <c r="D18" s="11"/>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="1:5" ht="20">
+    <row r="19" spans="1:5" ht="15.5">
       <c r="A19" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B19" s="9">
         <v>4000</v>
@@ -8925,9 +8927,9 @@
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" spans="1:5" ht="20">
+    <row r="20" spans="1:5" ht="15.5">
       <c r="A20" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B20" s="9">
         <v>4000</v>
@@ -8936,9 +8938,9 @@
       <c r="D20" s="11"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:5" ht="20">
+    <row r="21" spans="1:5" ht="15.5">
       <c r="A21" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B21" s="9">
         <v>4000</v>
@@ -8947,9 +8949,9 @@
       <c r="D21" s="11"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:5" ht="20">
+    <row r="22" spans="1:5" ht="15.5">
       <c r="A22" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B22" s="9">
         <v>4000</v>
@@ -8958,9 +8960,9 @@
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:5" ht="20">
+    <row r="23" spans="1:5" ht="15.5">
       <c r="A23" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B23" s="9">
         <v>4000</v>
@@ -8969,9 +8971,9 @@
       <c r="D23" s="11"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:5" ht="20">
+    <row r="24" spans="1:5" ht="15.5">
       <c r="A24" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B24" s="9">
         <v>4000</v>
@@ -8980,9 +8982,9 @@
       <c r="D24" s="11"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:5" ht="20">
+    <row r="25" spans="1:5" ht="15.5">
       <c r="A25" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B25" s="9">
         <v>4000</v>
@@ -8991,9 +8993,9 @@
       <c r="D25" s="11"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="1:5" ht="20">
+    <row r="26" spans="1:5" ht="15.5">
       <c r="A26" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B26" s="9">
         <v>4000</v>
@@ -9002,9 +9004,9 @@
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5" ht="20">
+    <row r="27" spans="1:5" ht="15.5">
       <c r="A27" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B27" s="9">
         <v>4000</v>
@@ -9013,9 +9015,9 @@
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:5" ht="20">
+    <row r="28" spans="1:5" ht="15.5">
       <c r="A28" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B28" s="9">
         <v>4000</v>
@@ -9024,9 +9026,9 @@
       <c r="D28" s="11"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:5" ht="20">
+    <row r="29" spans="1:5" ht="15.5">
       <c r="A29" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B29" s="9">
         <v>2000</v>
@@ -9035,9 +9037,9 @@
       <c r="D29" s="11"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="1:5" ht="20">
+    <row r="30" spans="1:5" ht="15.5">
       <c r="A30" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B30" s="9">
         <v>2000</v>
@@ -9046,9 +9048,9 @@
       <c r="D30" s="11"/>
       <c r="E30" s="12"/>
     </row>
-    <row r="31" spans="1:5" ht="20">
+    <row r="31" spans="1:5" ht="15.5">
       <c r="A31" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B31" s="9">
         <v>4000</v>
@@ -9057,9 +9059,9 @@
       <c r="D31" s="11"/>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="1:5" ht="20">
+    <row r="32" spans="1:5" ht="15.5">
       <c r="A32" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B32" s="9">
         <v>4000</v>
@@ -9068,9 +9070,9 @@
       <c r="D32" s="11"/>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="1:5" ht="20">
+    <row r="33" spans="1:5" ht="15.5">
       <c r="A33" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B33" s="9">
         <v>4000</v>
@@ -9079,9 +9081,9 @@
       <c r="D33" s="11"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="1:5" ht="20">
+    <row r="34" spans="1:5" ht="15.5">
       <c r="A34" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B34" s="9">
         <v>4000</v>
@@ -9090,9 +9092,9 @@
       <c r="D34" s="11"/>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="20">
+    <row r="35" spans="1:5" ht="15.5">
       <c r="A35" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B35" s="9">
         <v>4000</v>
@@ -9101,9 +9103,9 @@
       <c r="D35" s="11"/>
       <c r="E35" s="12"/>
     </row>
-    <row r="36" spans="1:5" ht="20">
+    <row r="36" spans="1:5" ht="15.5">
       <c r="A36" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B36" s="9">
         <v>2000</v>
@@ -9112,9 +9114,9 @@
       <c r="D36" s="11"/>
       <c r="E36" s="12"/>
     </row>
-    <row r="37" spans="1:5" ht="20">
+    <row r="37" spans="1:5" ht="15.5">
       <c r="A37" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B37" s="9">
         <v>2000</v>
@@ -9123,9 +9125,9 @@
       <c r="D37" s="11"/>
       <c r="E37" s="12"/>
     </row>
-    <row r="38" spans="1:5" ht="20">
+    <row r="38" spans="1:5" ht="15.5">
       <c r="A38" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B38" s="9">
         <v>2000</v>
@@ -9134,9 +9136,9 @@
       <c r="D38" s="11"/>
       <c r="E38" s="12"/>
     </row>
-    <row r="39" spans="1:5" ht="20">
+    <row r="39" spans="1:5" ht="15.5">
       <c r="A39" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B39" s="9">
         <v>2000</v>
@@ -9145,9 +9147,9 @@
       <c r="D39" s="11"/>
       <c r="E39" s="12"/>
     </row>
-    <row r="40" spans="1:5" ht="20">
+    <row r="40" spans="1:5" ht="15.5">
       <c r="A40" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B40" s="9">
         <v>2000</v>
@@ -9156,9 +9158,9 @@
       <c r="D40" s="11"/>
       <c r="E40" s="12"/>
     </row>
-    <row r="41" spans="1:5" ht="20">
+    <row r="41" spans="1:5" ht="15.5">
       <c r="A41" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B41" s="9">
         <v>2000</v>
@@ -9167,9 +9169,9 @@
       <c r="D41" s="11"/>
       <c r="E41" s="12"/>
     </row>
-    <row r="42" spans="1:5" ht="20">
+    <row r="42" spans="1:5" ht="15.5">
       <c r="A42" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B42" s="9">
         <v>2000</v>
@@ -9178,9 +9180,9 @@
       <c r="D42" s="11"/>
       <c r="E42" s="12"/>
     </row>
-    <row r="43" spans="1:5" ht="20">
+    <row r="43" spans="1:5" ht="15.5">
       <c r="A43" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B43" s="9">
         <v>2000</v>
@@ -9189,9 +9191,9 @@
       <c r="D43" s="11"/>
       <c r="E43" s="12"/>
     </row>
-    <row r="44" spans="1:5" ht="20">
+    <row r="44" spans="1:5" ht="15.5">
       <c r="A44" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B44" s="9">
         <v>2000</v>
@@ -9200,9 +9202,9 @@
       <c r="D44" s="11"/>
       <c r="E44" s="12"/>
     </row>
-    <row r="45" spans="1:5" ht="20">
+    <row r="45" spans="1:5" ht="15.5">
       <c r="A45" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B45" s="9">
         <v>2000</v>
@@ -9211,9 +9213,9 @@
       <c r="D45" s="11"/>
       <c r="E45" s="12"/>
     </row>
-    <row r="46" spans="1:5" ht="20">
+    <row r="46" spans="1:5" ht="15.5">
       <c r="A46" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B46" s="9">
         <v>2000</v>
@@ -9222,9 +9224,9 @@
       <c r="D46" s="11"/>
       <c r="E46" s="12"/>
     </row>
-    <row r="47" spans="1:5" ht="20">
+    <row r="47" spans="1:5" ht="15.5">
       <c r="A47" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B47" s="9">
         <v>2000</v>
@@ -9233,9 +9235,9 @@
       <c r="D47" s="11"/>
       <c r="E47" s="12"/>
     </row>
-    <row r="48" spans="1:5" ht="20">
+    <row r="48" spans="1:5" ht="15.5">
       <c r="A48" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B48" s="9">
         <v>2000</v>
@@ -9244,9 +9246,9 @@
       <c r="D48" s="11"/>
       <c r="E48" s="12"/>
     </row>
-    <row r="49" spans="1:5" ht="20">
+    <row r="49" spans="1:5" ht="15.5">
       <c r="A49" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B49" s="9">
         <v>2000</v>
@@ -9255,9 +9257,9 @@
       <c r="D49" s="11"/>
       <c r="E49" s="12"/>
     </row>
-    <row r="50" spans="1:5" ht="20">
+    <row r="50" spans="1:5" ht="15.5">
       <c r="A50" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B50" s="9">
         <v>2000</v>
@@ -9266,9 +9268,9 @@
       <c r="D50" s="11"/>
       <c r="E50" s="12"/>
     </row>
-    <row r="51" spans="1:5" ht="20">
+    <row r="51" spans="1:5" ht="15.5">
       <c r="A51" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B51" s="9">
         <v>4000</v>
@@ -9277,9 +9279,9 @@
       <c r="D51" s="11"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="1:5" ht="20">
+    <row r="52" spans="1:5" ht="15.5">
       <c r="A52" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B52" s="9">
         <v>4000</v>
@@ -9288,9 +9290,9 @@
       <c r="D52" s="11"/>
       <c r="E52" s="12"/>
     </row>
-    <row r="53" spans="1:5" ht="20">
+    <row r="53" spans="1:5" ht="15.5">
       <c r="A53" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B53" s="9">
         <v>4000</v>
@@ -9299,9 +9301,9 @@
       <c r="D53" s="11"/>
       <c r="E53" s="12"/>
     </row>
-    <row r="54" spans="1:5" ht="20">
+    <row r="54" spans="1:5" ht="15.5">
       <c r="A54" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B54" s="9">
         <v>4000</v>
@@ -9310,9 +9312,9 @@
       <c r="D54" s="11"/>
       <c r="E54" s="12"/>
     </row>
-    <row r="55" spans="1:5" ht="20">
+    <row r="55" spans="1:5" ht="15.5">
       <c r="A55" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B55" s="9">
         <v>4000</v>
@@ -9321,9 +9323,9 @@
       <c r="D55" s="11"/>
       <c r="E55" s="12"/>
     </row>
-    <row r="56" spans="1:5" ht="20">
+    <row r="56" spans="1:5" ht="15.5">
       <c r="A56" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B56" s="9">
         <v>4000</v>
@@ -9332,9 +9334,9 @@
       <c r="D56" s="11"/>
       <c r="E56" s="12"/>
     </row>
-    <row r="57" spans="1:5" ht="20">
+    <row r="57" spans="1:5" ht="15.5">
       <c r="A57" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B57" s="9">
         <v>4000</v>
@@ -9343,9 +9345,9 @@
       <c r="D57" s="11"/>
       <c r="E57" s="12"/>
     </row>
-    <row r="58" spans="1:5" ht="20">
+    <row r="58" spans="1:5" ht="15.5">
       <c r="A58" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B58" s="9">
         <v>4000</v>
@@ -9354,9 +9356,9 @@
       <c r="D58" s="11"/>
       <c r="E58" s="12"/>
     </row>
-    <row r="59" spans="1:5" ht="20">
+    <row r="59" spans="1:5" ht="15.5">
       <c r="A59" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B59" s="9">
         <v>4000</v>
@@ -9365,9 +9367,9 @@
       <c r="D59" s="11"/>
       <c r="E59" s="12"/>
     </row>
-    <row r="60" spans="1:5" ht="20">
+    <row r="60" spans="1:5" ht="15.5">
       <c r="A60" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B60" s="9">
         <v>4000</v>
@@ -9376,9 +9378,9 @@
       <c r="D60" s="14"/>
       <c r="E60" s="12"/>
     </row>
-    <row r="61" spans="1:5" ht="20">
+    <row r="61" spans="1:5" ht="15">
       <c r="A61" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B61" s="9">
         <v>4000</v>
@@ -9387,9 +9389,9 @@
       <c r="D61" s="14"/>
       <c r="E61" s="15"/>
     </row>
-    <row r="62" spans="1:5" ht="20">
+    <row r="62" spans="1:5" ht="15">
       <c r="A62" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B62" s="9">
         <v>4000</v>
@@ -9398,9 +9400,9 @@
       <c r="D62" s="14"/>
       <c r="E62" s="15"/>
     </row>
-    <row r="63" spans="1:5" ht="20">
+    <row r="63" spans="1:5" ht="15">
       <c r="A63" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B63" s="9">
         <v>4000</v>
@@ -9409,9 +9411,9 @@
       <c r="D63" s="14"/>
       <c r="E63" s="15"/>
     </row>
-    <row r="64" spans="1:5" ht="20">
+    <row r="64" spans="1:5" ht="15">
       <c r="A64" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B64" s="9">
         <v>4000</v>
@@ -9420,9 +9422,9 @@
       <c r="D64" s="14"/>
       <c r="E64" s="15"/>
     </row>
-    <row r="65" spans="1:5" ht="20">
+    <row r="65" spans="1:5" ht="15">
       <c r="A65" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B65" s="9">
         <v>4000</v>
@@ -9431,9 +9433,9 @@
       <c r="D65" s="14"/>
       <c r="E65" s="15"/>
     </row>
-    <row r="66" spans="1:5" ht="20">
+    <row r="66" spans="1:5" ht="15">
       <c r="A66" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B66" s="9">
         <v>4000</v>
@@ -9442,9 +9444,9 @@
       <c r="D66" s="14"/>
       <c r="E66" s="15"/>
     </row>
-    <row r="67" spans="1:5" ht="20">
+    <row r="67" spans="1:5" ht="15">
       <c r="A67" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B67" s="9">
         <v>4000</v>
@@ -9453,9 +9455,9 @@
       <c r="D67" s="14"/>
       <c r="E67" s="15"/>
     </row>
-    <row r="68" spans="1:5" ht="20">
+    <row r="68" spans="1:5" ht="15">
       <c r="A68" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B68" s="9">
         <v>4000</v>
@@ -9464,9 +9466,9 @@
       <c r="D68" s="14"/>
       <c r="E68" s="15"/>
     </row>
-    <row r="69" spans="1:5" ht="20">
+    <row r="69" spans="1:5" ht="15">
       <c r="A69" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B69" s="9">
         <v>4000</v>
@@ -9475,9 +9477,9 @@
       <c r="D69" s="14"/>
       <c r="E69" s="15"/>
     </row>
-    <row r="70" spans="1:5" ht="20">
+    <row r="70" spans="1:5" ht="15">
       <c r="A70" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B70" s="9">
         <v>4000</v>
@@ -9486,9 +9488,9 @@
       <c r="D70" s="14"/>
       <c r="E70" s="15"/>
     </row>
-    <row r="71" spans="1:5" ht="20">
+    <row r="71" spans="1:5" ht="15">
       <c r="A71" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B71" s="9">
         <v>4000</v>
@@ -9497,9 +9499,9 @@
       <c r="D71" s="14"/>
       <c r="E71" s="15"/>
     </row>
-    <row r="72" spans="1:5" ht="20">
+    <row r="72" spans="1:5" ht="15">
       <c r="A72" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B72" s="9">
         <v>4000</v>
@@ -9508,9 +9510,9 @@
       <c r="D72" s="14"/>
       <c r="E72" s="15"/>
     </row>
-    <row r="73" spans="1:5" ht="20">
+    <row r="73" spans="1:5" ht="15">
       <c r="A73" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B73" s="9">
         <v>4000</v>
@@ -9519,9 +9521,9 @@
       <c r="D73" s="14"/>
       <c r="E73" s="15"/>
     </row>
-    <row r="74" spans="1:5" ht="20">
+    <row r="74" spans="1:5" ht="15">
       <c r="A74" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B74" s="9">
         <v>4000</v>
@@ -9530,9 +9532,9 @@
       <c r="D74" s="14"/>
       <c r="E74" s="15"/>
     </row>
-    <row r="75" spans="1:5" ht="20">
+    <row r="75" spans="1:5" ht="15">
       <c r="A75" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B75" s="9">
         <v>4000</v>
@@ -9541,9 +9543,9 @@
       <c r="D75" s="14"/>
       <c r="E75" s="15"/>
     </row>
-    <row r="76" spans="1:5" ht="20">
+    <row r="76" spans="1:5" ht="15">
       <c r="A76" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B76" s="9">
         <v>4000</v>
@@ -9552,9 +9554,9 @@
       <c r="D76" s="14"/>
       <c r="E76" s="15"/>
     </row>
-    <row r="77" spans="1:5" ht="20">
+    <row r="77" spans="1:5" ht="15">
       <c r="A77" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B77" s="9">
         <v>4000</v>
@@ -9563,9 +9565,9 @@
       <c r="D77" s="14"/>
       <c r="E77" s="15"/>
     </row>
-    <row r="78" spans="1:5" ht="20">
+    <row r="78" spans="1:5" ht="15">
       <c r="A78" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B78" s="9">
         <v>4000</v>
@@ -9574,9 +9576,9 @@
       <c r="D78" s="14"/>
       <c r="E78" s="15"/>
     </row>
-    <row r="79" spans="1:5" ht="20">
+    <row r="79" spans="1:5" ht="15">
       <c r="A79" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B79" s="9">
         <v>4000</v>
@@ -9585,9 +9587,9 @@
       <c r="D79" s="14"/>
       <c r="E79" s="15"/>
     </row>
-    <row r="80" spans="1:5" ht="20">
+    <row r="80" spans="1:5" ht="15">
       <c r="A80" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B80" s="9">
         <v>4000</v>
@@ -9596,9 +9598,9 @@
       <c r="D80" s="14"/>
       <c r="E80" s="15"/>
     </row>
-    <row r="81" spans="1:5" ht="20">
+    <row r="81" spans="1:5" ht="15">
       <c r="A81" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B81" s="9">
         <v>4000</v>
@@ -9607,9 +9609,9 @@
       <c r="D81" s="14"/>
       <c r="E81" s="15"/>
     </row>
-    <row r="82" spans="1:5" ht="20">
+    <row r="82" spans="1:5" ht="15">
       <c r="A82" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B82" s="9">
         <v>4000</v>
@@ -9618,9 +9620,9 @@
       <c r="D82" s="14"/>
       <c r="E82" s="15"/>
     </row>
-    <row r="83" spans="1:5" ht="20">
+    <row r="83" spans="1:5" ht="15">
       <c r="A83" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B83" s="9">
         <v>4000</v>
@@ -9629,9 +9631,9 @@
       <c r="D83" s="14"/>
       <c r="E83" s="15"/>
     </row>
-    <row r="84" spans="1:5" ht="20">
+    <row r="84" spans="1:5" ht="15">
       <c r="A84" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B84" s="9">
         <v>4000</v>
@@ -9640,9 +9642,9 @@
       <c r="D84" s="14"/>
       <c r="E84" s="15"/>
     </row>
-    <row r="85" spans="1:5" ht="20">
+    <row r="85" spans="1:5" ht="15">
       <c r="A85" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B85" s="9">
         <v>4000</v>
@@ -9651,9 +9653,9 @@
       <c r="D85" s="14"/>
       <c r="E85" s="15"/>
     </row>
-    <row r="86" spans="1:5" ht="20">
+    <row r="86" spans="1:5" ht="15">
       <c r="A86" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B86" s="9">
         <v>4000</v>
@@ -9662,9 +9664,9 @@
       <c r="D86" s="14"/>
       <c r="E86" s="15"/>
     </row>
-    <row r="87" spans="1:5" ht="20">
+    <row r="87" spans="1:5" ht="15">
       <c r="A87" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B87" s="9">
         <v>4000</v>
@@ -9673,9 +9675,9 @@
       <c r="D87" s="14"/>
       <c r="E87" s="15"/>
     </row>
-    <row r="88" spans="1:5" ht="20">
+    <row r="88" spans="1:5" ht="15">
       <c r="A88" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B88" s="9">
         <v>4000</v>
@@ -9684,9 +9686,9 @@
       <c r="D88" s="14"/>
       <c r="E88" s="15"/>
     </row>
-    <row r="89" spans="1:5" ht="20">
+    <row r="89" spans="1:5" ht="15">
       <c r="A89" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B89" s="9">
         <v>4000</v>
@@ -9695,9 +9697,9 @@
       <c r="D89" s="14"/>
       <c r="E89" s="15"/>
     </row>
-    <row r="90" spans="1:5" ht="20">
+    <row r="90" spans="1:5" ht="15">
       <c r="A90" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B90" s="9">
         <v>4000</v>
@@ -9706,9 +9708,9 @@
       <c r="D90" s="14"/>
       <c r="E90" s="15"/>
     </row>
-    <row r="91" spans="1:5" ht="20">
+    <row r="91" spans="1:5" ht="15">
       <c r="A91" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B91" s="9">
         <v>4000</v>
@@ -9717,9 +9719,9 @@
       <c r="D91" s="14"/>
       <c r="E91" s="15"/>
     </row>
-    <row r="92" spans="1:5" ht="20">
+    <row r="92" spans="1:5" ht="15">
       <c r="A92" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B92" s="9">
         <v>4000</v>
@@ -9728,9 +9730,9 @@
       <c r="D92" s="14"/>
       <c r="E92" s="15"/>
     </row>
-    <row r="93" spans="1:5" ht="20">
+    <row r="93" spans="1:5" ht="15">
       <c r="A93" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B93" s="9">
         <v>4000</v>
@@ -9739,9 +9741,9 @@
       <c r="D93" s="14"/>
       <c r="E93" s="15"/>
     </row>
-    <row r="94" spans="1:5" ht="20">
+    <row r="94" spans="1:5" ht="15">
       <c r="A94" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B94" s="9">
         <v>4000</v>
@@ -9750,9 +9752,9 @@
       <c r="D94" s="14"/>
       <c r="E94" s="15"/>
     </row>
-    <row r="95" spans="1:5" ht="20">
+    <row r="95" spans="1:5" ht="15">
       <c r="A95" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B95" s="9">
         <v>2000</v>
@@ -9761,9 +9763,9 @@
       <c r="D95" s="14"/>
       <c r="E95" s="15"/>
     </row>
-    <row r="96" spans="1:5" ht="20">
+    <row r="96" spans="1:5" ht="15">
       <c r="A96" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B96" s="9">
         <v>2000</v>
@@ -9772,9 +9774,9 @@
       <c r="D96" s="14"/>
       <c r="E96" s="15"/>
     </row>
-    <row r="97" spans="1:5" ht="20">
+    <row r="97" spans="1:5" ht="15">
       <c r="A97" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B97" s="9">
         <v>2000</v>
@@ -9783,9 +9785,9 @@
       <c r="D97" s="14"/>
       <c r="E97" s="15"/>
     </row>
-    <row r="98" spans="1:5" ht="20">
+    <row r="98" spans="1:5" ht="15">
       <c r="A98" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B98" s="9">
         <v>2000</v>
@@ -9794,9 +9796,9 @@
       <c r="D98" s="14"/>
       <c r="E98" s="15"/>
     </row>
-    <row r="99" spans="1:5" ht="20">
+    <row r="99" spans="1:5" ht="15">
       <c r="A99" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B99" s="9">
         <v>2000</v>
@@ -9805,9 +9807,9 @@
       <c r="D99" s="14"/>
       <c r="E99" s="15"/>
     </row>
-    <row r="100" spans="1:5" ht="20">
+    <row r="100" spans="1:5" ht="15">
       <c r="A100" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B100" s="9">
         <v>4000</v>
@@ -9816,9 +9818,9 @@
       <c r="D100" s="14"/>
       <c r="E100" s="15"/>
     </row>
-    <row r="101" spans="1:5" ht="20">
+    <row r="101" spans="1:5" ht="15">
       <c r="A101" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B101" s="9">
         <v>4000</v>
@@ -9827,9 +9829,9 @@
       <c r="D101" s="14"/>
       <c r="E101" s="15"/>
     </row>
-    <row r="102" spans="1:5" ht="20">
+    <row r="102" spans="1:5" ht="15">
       <c r="A102" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B102" s="9">
         <v>4000</v>
@@ -9838,9 +9840,9 @@
       <c r="D102" s="14"/>
       <c r="E102" s="15"/>
     </row>
-    <row r="103" spans="1:5" ht="20">
+    <row r="103" spans="1:5" ht="15">
       <c r="A103" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B103" s="9">
         <v>4000</v>
@@ -9849,9 +9851,9 @@
       <c r="D103" s="14"/>
       <c r="E103" s="15"/>
     </row>
-    <row r="104" spans="1:5" ht="20">
+    <row r="104" spans="1:5" ht="15">
       <c r="A104" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B104" s="9">
         <v>4000</v>
@@ -9860,9 +9862,9 @@
       <c r="D104" s="14"/>
       <c r="E104" s="15"/>
     </row>
-    <row r="105" spans="1:5" ht="20">
+    <row r="105" spans="1:5" ht="15">
       <c r="A105" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B105" s="9">
         <v>4000</v>
@@ -9871,9 +9873,9 @@
       <c r="D105" s="14"/>
       <c r="E105" s="15"/>
     </row>
-    <row r="106" spans="1:5" ht="20">
+    <row r="106" spans="1:5" ht="15">
       <c r="A106" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B106" s="9">
         <v>2000</v>
@@ -9882,9 +9884,9 @@
       <c r="D106" s="14"/>
       <c r="E106" s="15"/>
     </row>
-    <row r="107" spans="1:5" ht="20">
+    <row r="107" spans="1:5" ht="15">
       <c r="A107" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B107" s="9">
         <v>4000</v>
@@ -9893,9 +9895,9 @@
       <c r="D107" s="14"/>
       <c r="E107" s="15"/>
     </row>
-    <row r="108" spans="1:5" ht="20">
+    <row r="108" spans="1:5" ht="15">
       <c r="A108" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B108" s="9">
         <v>4000</v>
@@ -9904,9 +9906,9 @@
       <c r="D108" s="14"/>
       <c r="E108" s="15"/>
     </row>
-    <row r="109" spans="1:5" ht="20">
+    <row r="109" spans="1:5" ht="15">
       <c r="A109" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B109" s="9">
         <v>4000</v>
@@ -9915,9 +9917,9 @@
       <c r="D109" s="14"/>
       <c r="E109" s="15"/>
     </row>
-    <row r="110" spans="1:5" ht="20">
+    <row r="110" spans="1:5" ht="15">
       <c r="A110" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B110" s="9">
         <v>4000</v>
@@ -9926,9 +9928,9 @@
       <c r="D110" s="14"/>
       <c r="E110" s="15"/>
     </row>
-    <row r="111" spans="1:5" ht="20">
+    <row r="111" spans="1:5" ht="15">
       <c r="A111" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B111" s="9">
         <v>2000</v>
@@ -9937,9 +9939,9 @@
       <c r="D111" s="14"/>
       <c r="E111" s="15"/>
     </row>
-    <row r="112" spans="1:5" ht="20">
+    <row r="112" spans="1:5" ht="15">
       <c r="A112" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B112" s="9">
         <v>2000</v>
@@ -9948,9 +9950,9 @@
       <c r="D112" s="14"/>
       <c r="E112" s="15"/>
     </row>
-    <row r="113" spans="1:5" ht="20">
+    <row r="113" spans="1:5" ht="15">
       <c r="A113" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B113" s="9">
         <v>2000</v>
@@ -9959,9 +9961,9 @@
       <c r="D113" s="14"/>
       <c r="E113" s="15"/>
     </row>
-    <row r="114" spans="1:5" ht="20">
+    <row r="114" spans="1:5" ht="15">
       <c r="A114" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B114" s="9">
         <v>2000</v>
@@ -9970,9 +9972,9 @@
       <c r="D114" s="14"/>
       <c r="E114" s="15"/>
     </row>
-    <row r="115" spans="1:5" ht="20">
+    <row r="115" spans="1:5" ht="15">
       <c r="A115" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B115" s="9">
         <v>4000</v>
@@ -9981,9 +9983,9 @@
       <c r="D115" s="14"/>
       <c r="E115" s="15"/>
     </row>
-    <row r="116" spans="1:5" ht="20">
+    <row r="116" spans="1:5" ht="15">
       <c r="A116" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B116" s="9">
         <v>4000</v>
@@ -9992,9 +9994,9 @@
       <c r="D116" s="14"/>
       <c r="E116" s="15"/>
     </row>
-    <row r="117" spans="1:5" ht="20">
+    <row r="117" spans="1:5" ht="15">
       <c r="A117" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B117" s="9">
         <v>4000</v>
@@ -10003,9 +10005,9 @@
       <c r="D117" s="14"/>
       <c r="E117" s="15"/>
     </row>
-    <row r="118" spans="1:5" ht="20">
+    <row r="118" spans="1:5" ht="15">
       <c r="A118" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B118" s="9">
         <v>4000</v>
@@ -10014,9 +10016,9 @@
       <c r="D118" s="14"/>
       <c r="E118" s="15"/>
     </row>
-    <row r="119" spans="1:5" ht="20">
+    <row r="119" spans="1:5" ht="15">
       <c r="A119" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B119" s="9">
         <v>4000</v>
@@ -10025,9 +10027,9 @@
       <c r="D119" s="14"/>
       <c r="E119" s="15"/>
     </row>
-    <row r="120" spans="1:5" ht="20">
+    <row r="120" spans="1:5" ht="15">
       <c r="A120" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B120" s="9">
         <v>4000</v>
@@ -10036,9 +10038,9 @@
       <c r="D120" s="14"/>
       <c r="E120" s="15"/>
     </row>
-    <row r="121" spans="1:5" ht="20">
+    <row r="121" spans="1:5" ht="15">
       <c r="A121" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B121" s="9">
         <v>4000</v>
@@ -10047,9 +10049,9 @@
       <c r="D121" s="14"/>
       <c r="E121" s="15"/>
     </row>
-    <row r="122" spans="1:5" ht="20">
+    <row r="122" spans="1:5" ht="15">
       <c r="A122" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B122" s="9">
         <v>4000</v>
@@ -10058,9 +10060,9 @@
       <c r="D122" s="14"/>
       <c r="E122" s="15"/>
     </row>
-    <row r="123" spans="1:5" ht="20">
+    <row r="123" spans="1:5" ht="15">
       <c r="A123" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B123" s="9">
         <v>4000</v>
@@ -10069,9 +10071,9 @@
       <c r="D123" s="14"/>
       <c r="E123" s="15"/>
     </row>
-    <row r="124" spans="1:5" ht="20">
+    <row r="124" spans="1:5" ht="15">
       <c r="A124" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B124" s="9">
         <v>4000</v>
@@ -10080,9 +10082,9 @@
       <c r="D124" s="14"/>
       <c r="E124" s="15"/>
     </row>
-    <row r="125" spans="1:5" ht="20">
+    <row r="125" spans="1:5" ht="15">
       <c r="A125" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B125" s="9">
         <v>4000</v>
@@ -10091,9 +10093,9 @@
       <c r="D125" s="14"/>
       <c r="E125" s="15"/>
     </row>
-    <row r="126" spans="1:5" ht="20">
+    <row r="126" spans="1:5" ht="15">
       <c r="A126" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B126" s="9">
         <v>4000</v>
@@ -10102,9 +10104,9 @@
       <c r="D126" s="14"/>
       <c r="E126" s="15"/>
     </row>
-    <row r="127" spans="1:5" ht="20">
+    <row r="127" spans="1:5" ht="15">
       <c r="A127" s="19" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B127" s="9">
         <v>4000</v>
@@ -10113,9 +10115,9 @@
       <c r="D127" s="14"/>
       <c r="E127" s="15"/>
     </row>
-    <row r="128" spans="1:5" ht="20">
+    <row r="128" spans="1:5" ht="15">
       <c r="A128" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B128" s="9">
         <v>4000</v>
@@ -10124,9 +10126,9 @@
       <c r="D128" s="14"/>
       <c r="E128" s="15"/>
     </row>
-    <row r="129" spans="1:5" ht="20">
+    <row r="129" spans="1:5" ht="15">
       <c r="A129" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B129" s="9">
         <v>4000</v>
@@ -10135,9 +10137,9 @@
       <c r="D129" s="14"/>
       <c r="E129" s="15"/>
     </row>
-    <row r="130" spans="1:5" ht="20">
+    <row r="130" spans="1:5" ht="15">
       <c r="A130" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B130" s="9">
         <v>2000</v>
@@ -10146,9 +10148,9 @@
       <c r="D130" s="14"/>
       <c r="E130" s="15"/>
     </row>
-    <row r="131" spans="1:5" ht="20">
+    <row r="131" spans="1:5" ht="15">
       <c r="A131" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B131" s="9">
         <v>2000</v>
@@ -10157,9 +10159,9 @@
       <c r="D131" s="14"/>
       <c r="E131" s="15"/>
     </row>
-    <row r="132" spans="1:5" ht="20">
+    <row r="132" spans="1:5" ht="15">
       <c r="A132" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B132" s="9">
         <v>2000</v>
@@ -10168,9 +10170,9 @@
       <c r="D132" s="14"/>
       <c r="E132" s="15"/>
     </row>
-    <row r="133" spans="1:5" ht="20">
+    <row r="133" spans="1:5" ht="15">
       <c r="A133" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B133" s="9">
         <v>2000</v>
@@ -10179,9 +10181,9 @@
       <c r="D133" s="14"/>
       <c r="E133" s="15"/>
     </row>
-    <row r="134" spans="1:5" ht="20">
+    <row r="134" spans="1:5" ht="15">
       <c r="A134" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B134" s="9">
         <v>2000</v>
@@ -10190,9 +10192,9 @@
       <c r="D134" s="14"/>
       <c r="E134" s="15"/>
     </row>
-    <row r="135" spans="1:5" ht="20">
+    <row r="135" spans="1:5" ht="15">
       <c r="A135" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B135" s="9">
         <v>2000</v>
@@ -10201,9 +10203,9 @@
       <c r="D135" s="14"/>
       <c r="E135" s="15"/>
     </row>
-    <row r="136" spans="1:5" ht="20">
+    <row r="136" spans="1:5" ht="15">
       <c r="A136" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B136" s="9">
         <v>2000</v>
@@ -10212,9 +10214,9 @@
       <c r="D136" s="14"/>
       <c r="E136" s="15"/>
     </row>
-    <row r="137" spans="1:5" ht="20">
+    <row r="137" spans="1:5" ht="15">
       <c r="A137" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B137" s="9">
         <v>2000</v>
@@ -10223,9 +10225,9 @@
       <c r="D137" s="14"/>
       <c r="E137" s="15"/>
     </row>
-    <row r="138" spans="1:5" ht="20">
+    <row r="138" spans="1:5" ht="15">
       <c r="A138" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B138" s="9">
         <v>2000</v>
@@ -10234,9 +10236,9 @@
       <c r="D138" s="14"/>
       <c r="E138" s="15"/>
     </row>
-    <row r="139" spans="1:5" ht="20">
+    <row r="139" spans="1:5" ht="15">
       <c r="A139" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B139" s="9">
         <v>2000</v>
@@ -10245,9 +10247,9 @@
       <c r="D139" s="14"/>
       <c r="E139" s="15"/>
     </row>
-    <row r="140" spans="1:5" ht="20">
+    <row r="140" spans="1:5" ht="15">
       <c r="A140" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B140" s="9">
         <v>2000</v>
@@ -10256,9 +10258,9 @@
       <c r="D140" s="14"/>
       <c r="E140" s="15"/>
     </row>
-    <row r="141" spans="1:5" ht="20">
+    <row r="141" spans="1:5" ht="15">
       <c r="A141" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B141" s="9">
         <v>2000</v>
@@ -10267,9 +10269,9 @@
       <c r="D141" s="14"/>
       <c r="E141" s="15"/>
     </row>
-    <row r="142" spans="1:5" ht="20">
+    <row r="142" spans="1:5" ht="15">
       <c r="A142" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B142" s="9">
         <v>4000</v>
@@ -10278,9 +10280,9 @@
       <c r="D142" s="14"/>
       <c r="E142" s="15"/>
     </row>
-    <row r="143" spans="1:5" ht="20">
+    <row r="143" spans="1:5" ht="15">
       <c r="A143" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B143" s="9">
         <v>4000</v>
@@ -10289,9 +10291,9 @@
       <c r="D143" s="14"/>
       <c r="E143" s="15"/>
     </row>
-    <row r="144" spans="1:5" ht="20">
+    <row r="144" spans="1:5" ht="15">
       <c r="A144" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B144" s="9">
         <v>4000</v>
@@ -10300,9 +10302,9 @@
       <c r="D144" s="14"/>
       <c r="E144" s="15"/>
     </row>
-    <row r="145" spans="1:5" ht="20">
+    <row r="145" spans="1:5" ht="15">
       <c r="A145" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B145" s="9">
         <v>4000</v>
@@ -10311,9 +10313,9 @@
       <c r="D145" s="14"/>
       <c r="E145" s="15"/>
     </row>
-    <row r="146" spans="1:5" ht="20">
+    <row r="146" spans="1:5" ht="15">
       <c r="A146" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B146" s="9">
         <v>2000</v>
@@ -10322,9 +10324,9 @@
       <c r="D146" s="14"/>
       <c r="E146" s="15"/>
     </row>
-    <row r="147" spans="1:5" ht="20">
+    <row r="147" spans="1:5" ht="15">
       <c r="A147" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B147" s="9">
         <v>4000</v>
@@ -10333,9 +10335,9 @@
       <c r="D147" s="14"/>
       <c r="E147" s="15"/>
     </row>
-    <row r="148" spans="1:5" ht="20">
+    <row r="148" spans="1:5" ht="15">
       <c r="A148" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B148" s="9">
         <v>4000</v>
@@ -10344,9 +10346,9 @@
       <c r="D148" s="14"/>
       <c r="E148" s="15"/>
     </row>
-    <row r="149" spans="1:5" ht="20">
+    <row r="149" spans="1:5" ht="15">
       <c r="A149" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B149" s="9">
         <v>4000</v>
@@ -10355,9 +10357,9 @@
       <c r="D149" s="14"/>
       <c r="E149" s="15"/>
     </row>
-    <row r="150" spans="1:5" ht="20">
+    <row r="150" spans="1:5" ht="15">
       <c r="A150" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B150" s="9">
         <v>4000</v>
@@ -10366,9 +10368,9 @@
       <c r="D150" s="14"/>
       <c r="E150" s="15"/>
     </row>
-    <row r="151" spans="1:5" ht="20">
+    <row r="151" spans="1:5" ht="15">
       <c r="A151" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B151" s="9">
         <v>4000</v>
@@ -10377,9 +10379,9 @@
       <c r="D151" s="14"/>
       <c r="E151" s="15"/>
     </row>
-    <row r="152" spans="1:5" ht="20">
+    <row r="152" spans="1:5" ht="15">
       <c r="A152" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B152" s="9">
         <v>4000</v>
@@ -10388,9 +10390,9 @@
       <c r="D152" s="14"/>
       <c r="E152" s="15"/>
     </row>
-    <row r="153" spans="1:5" ht="20">
+    <row r="153" spans="1:5" ht="15">
       <c r="A153" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B153" s="9">
         <v>4000</v>
@@ -10399,9 +10401,9 @@
       <c r="D153" s="14"/>
       <c r="E153" s="15"/>
     </row>
-    <row r="154" spans="1:5" ht="20">
+    <row r="154" spans="1:5" ht="15">
       <c r="A154" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B154" s="9">
         <v>4000</v>
@@ -10410,9 +10412,9 @@
       <c r="D154" s="14"/>
       <c r="E154" s="15"/>
     </row>
-    <row r="155" spans="1:5" ht="20">
+    <row r="155" spans="1:5" ht="15">
       <c r="A155" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B155" s="9">
         <v>4000</v>
@@ -10421,9 +10423,9 @@
       <c r="D155" s="14"/>
       <c r="E155" s="15"/>
     </row>
-    <row r="156" spans="1:5" ht="20">
+    <row r="156" spans="1:5" ht="15">
       <c r="A156" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B156" s="9">
         <v>4000</v>
@@ -10432,9 +10434,9 @@
       <c r="D156" s="14"/>
       <c r="E156" s="15"/>
     </row>
-    <row r="157" spans="1:5" ht="20">
+    <row r="157" spans="1:5" ht="15">
       <c r="A157" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B157" s="9">
         <v>4000</v>
@@ -10443,9 +10445,9 @@
       <c r="D157" s="14"/>
       <c r="E157" s="15"/>
     </row>
-    <row r="158" spans="1:5" ht="20">
+    <row r="158" spans="1:5" ht="15">
       <c r="A158" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B158" s="9">
         <v>4000</v>
@@ -10454,9 +10456,9 @@
       <c r="D158" s="14"/>
       <c r="E158" s="15"/>
     </row>
-    <row r="159" spans="1:5" ht="20">
+    <row r="159" spans="1:5" ht="15">
       <c r="A159" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B159" s="9">
         <v>4000</v>
@@ -10465,9 +10467,9 @@
       <c r="D159" s="14"/>
       <c r="E159" s="15"/>
     </row>
-    <row r="160" spans="1:5" ht="20">
+    <row r="160" spans="1:5" ht="15">
       <c r="A160" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B160" s="9">
         <v>4000</v>
@@ -10476,9 +10478,9 @@
       <c r="D160" s="14"/>
       <c r="E160" s="15"/>
     </row>
-    <row r="161" spans="1:5" ht="20">
+    <row r="161" spans="1:5" ht="15">
       <c r="A161" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B161" s="9">
         <v>4000</v>
@@ -10487,9 +10489,9 @@
       <c r="D161" s="14"/>
       <c r="E161" s="15"/>
     </row>
-    <row r="162" spans="1:5" ht="20">
+    <row r="162" spans="1:5" ht="15">
       <c r="A162" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B162" s="9">
         <v>2000</v>
@@ -10498,9 +10500,9 @@
       <c r="D162" s="14"/>
       <c r="E162" s="15"/>
     </row>
-    <row r="163" spans="1:5" ht="20">
+    <row r="163" spans="1:5" ht="15">
       <c r="A163" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B163" s="9">
         <v>2000</v>
@@ -10509,9 +10511,9 @@
       <c r="D163" s="14"/>
       <c r="E163" s="15"/>
     </row>
-    <row r="164" spans="1:5" ht="20">
+    <row r="164" spans="1:5" ht="15">
       <c r="A164" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B164" s="9">
         <v>2000</v>
@@ -10520,9 +10522,9 @@
       <c r="D164" s="14"/>
       <c r="E164" s="15"/>
     </row>
-    <row r="165" spans="1:5" ht="20">
+    <row r="165" spans="1:5" ht="15">
       <c r="A165" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B165" s="9">
         <v>2000</v>
@@ -10531,9 +10533,9 @@
       <c r="D165" s="14"/>
       <c r="E165" s="15"/>
     </row>
-    <row r="166" spans="1:5" ht="20">
+    <row r="166" spans="1:5" ht="15">
       <c r="A166" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B166" s="9">
         <v>4000</v>
@@ -10542,9 +10544,9 @@
       <c r="D166" s="14"/>
       <c r="E166" s="15"/>
     </row>
-    <row r="167" spans="1:5" ht="20">
+    <row r="167" spans="1:5" ht="15">
       <c r="A167" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B167" s="9">
         <v>4000</v>
@@ -10553,9 +10555,9 @@
       <c r="D167" s="14"/>
       <c r="E167" s="15"/>
     </row>
-    <row r="168" spans="1:5" ht="20">
+    <row r="168" spans="1:5" ht="15">
       <c r="A168" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B168" s="9">
         <v>4000</v>
@@ -10564,9 +10566,9 @@
       <c r="D168" s="14"/>
       <c r="E168" s="15"/>
     </row>
-    <row r="169" spans="1:5" ht="20">
+    <row r="169" spans="1:5" ht="15">
       <c r="A169" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B169" s="9">
         <v>4000</v>
@@ -10575,9 +10577,9 @@
       <c r="D169" s="14"/>
       <c r="E169" s="15"/>
     </row>
-    <row r="170" spans="1:5" ht="20">
+    <row r="170" spans="1:5" ht="15">
       <c r="A170" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B170" s="9">
         <v>4000</v>
@@ -10586,9 +10588,9 @@
       <c r="D170" s="14"/>
       <c r="E170" s="15"/>
     </row>
-    <row r="171" spans="1:5" ht="20">
+    <row r="171" spans="1:5" ht="15">
       <c r="A171" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B171" s="9">
         <v>4000</v>
@@ -10597,9 +10599,9 @@
       <c r="D171" s="14"/>
       <c r="E171" s="15"/>
     </row>
-    <row r="172" spans="1:5" ht="20">
+    <row r="172" spans="1:5" ht="15">
       <c r="A172" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B172" s="9">
         <v>4000</v>
@@ -10608,9 +10610,9 @@
       <c r="D172" s="14"/>
       <c r="E172" s="15"/>
     </row>
-    <row r="173" spans="1:5" ht="20">
+    <row r="173" spans="1:5" ht="15">
       <c r="A173" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B173" s="9">
         <v>4000</v>
@@ -10619,9 +10621,9 @@
       <c r="D173" s="14"/>
       <c r="E173" s="15"/>
     </row>
-    <row r="174" spans="1:5" ht="20">
+    <row r="174" spans="1:5" ht="15">
       <c r="A174" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B174" s="9">
         <v>4000</v>
@@ -10630,9 +10632,9 @@
       <c r="D174" s="14"/>
       <c r="E174" s="15"/>
     </row>
-    <row r="175" spans="1:5" ht="20">
+    <row r="175" spans="1:5" ht="15">
       <c r="A175" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B175" s="9">
         <v>4000</v>
@@ -10641,9 +10643,9 @@
       <c r="D175" s="14"/>
       <c r="E175" s="15"/>
     </row>
-    <row r="176" spans="1:5" ht="20">
+    <row r="176" spans="1:5" ht="15">
       <c r="A176" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B176" s="9">
         <v>4000</v>
@@ -10652,9 +10654,9 @@
       <c r="D176" s="14"/>
       <c r="E176" s="15"/>
     </row>
-    <row r="177" spans="1:5" ht="20">
+    <row r="177" spans="1:5" ht="15">
       <c r="A177" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B177" s="9">
         <v>4000</v>
@@ -10663,9 +10665,9 @@
       <c r="D177" s="14"/>
       <c r="E177" s="15"/>
     </row>
-    <row r="178" spans="1:5" ht="20">
+    <row r="178" spans="1:5" ht="15">
       <c r="A178" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B178" s="9">
         <v>4000</v>
@@ -10674,9 +10676,9 @@
       <c r="D178" s="14"/>
       <c r="E178" s="15"/>
     </row>
-    <row r="179" spans="1:5" ht="20">
+    <row r="179" spans="1:5" ht="15">
       <c r="A179" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B179" s="9">
         <v>4000</v>
@@ -10685,9 +10687,9 @@
       <c r="D179" s="14"/>
       <c r="E179" s="15"/>
     </row>
-    <row r="180" spans="1:5" ht="20">
+    <row r="180" spans="1:5" ht="15">
       <c r="A180" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B180" s="9">
         <v>4000</v>
@@ -10696,9 +10698,9 @@
       <c r="D180" s="14"/>
       <c r="E180" s="15"/>
     </row>
-    <row r="181" spans="1:5" ht="20">
+    <row r="181" spans="1:5" ht="15">
       <c r="A181" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B181" s="9">
         <v>4000</v>
@@ -10707,9 +10709,9 @@
       <c r="D181" s="14"/>
       <c r="E181" s="15"/>
     </row>
-    <row r="182" spans="1:5" ht="20">
+    <row r="182" spans="1:5" ht="15">
       <c r="A182" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B182" s="9">
         <v>4000</v>
@@ -10718,9 +10720,9 @@
       <c r="D182" s="14"/>
       <c r="E182" s="15"/>
     </row>
-    <row r="183" spans="1:5" ht="20">
+    <row r="183" spans="1:5" ht="15">
       <c r="A183" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B183" s="9">
         <v>4000</v>
@@ -10729,9 +10731,9 @@
       <c r="D183" s="14"/>
       <c r="E183" s="15"/>
     </row>
-    <row r="184" spans="1:5" ht="20">
+    <row r="184" spans="1:5" ht="15">
       <c r="A184" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B184" s="9">
         <v>4000</v>
@@ -10740,9 +10742,9 @@
       <c r="D184" s="14"/>
       <c r="E184" s="15"/>
     </row>
-    <row r="185" spans="1:5" ht="20">
+    <row r="185" spans="1:5" ht="15">
       <c r="A185" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B185" s="9">
         <v>4000</v>
@@ -10751,9 +10753,9 @@
       <c r="D185" s="14"/>
       <c r="E185" s="15"/>
     </row>
-    <row r="186" spans="1:5" ht="20">
+    <row r="186" spans="1:5" ht="15">
       <c r="A186" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B186" s="9">
         <v>4000</v>
@@ -10762,9 +10764,9 @@
       <c r="D186" s="14"/>
       <c r="E186" s="15"/>
     </row>
-    <row r="187" spans="1:5" ht="20">
+    <row r="187" spans="1:5" ht="15">
       <c r="A187" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B187" s="9">
         <v>4000</v>
@@ -10773,9 +10775,9 @@
       <c r="D187" s="14"/>
       <c r="E187" s="15"/>
     </row>
-    <row r="188" spans="1:5" ht="20">
+    <row r="188" spans="1:5" ht="15">
       <c r="A188" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B188" s="9">
         <v>4000</v>
@@ -10784,9 +10786,9 @@
       <c r="D188" s="14"/>
       <c r="E188" s="15"/>
     </row>
-    <row r="189" spans="1:5" ht="20">
+    <row r="189" spans="1:5" ht="15">
       <c r="A189" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B189" s="9">
         <v>4000</v>
@@ -10795,9 +10797,9 @@
       <c r="D189" s="14"/>
       <c r="E189" s="15"/>
     </row>
-    <row r="190" spans="1:5" ht="20">
+    <row r="190" spans="1:5" ht="15">
       <c r="A190" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B190" s="9">
         <v>4000</v>
@@ -10806,9 +10808,9 @@
       <c r="D190" s="14"/>
       <c r="E190" s="15"/>
     </row>
-    <row r="191" spans="1:5" ht="20">
+    <row r="191" spans="1:5" ht="15">
       <c r="A191" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B191" s="9">
         <v>4000</v>
@@ -10817,9 +10819,9 @@
       <c r="D191" s="14"/>
       <c r="E191" s="15"/>
     </row>
-    <row r="192" spans="1:5" ht="20">
+    <row r="192" spans="1:5" ht="15">
       <c r="A192" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B192" s="9">
         <v>4000</v>
@@ -10828,9 +10830,9 @@
       <c r="D192" s="14"/>
       <c r="E192" s="15"/>
     </row>
-    <row r="193" spans="1:5" ht="20">
+    <row r="193" spans="1:5" ht="15">
       <c r="A193" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B193" s="9">
         <v>4000</v>
@@ -10839,9 +10841,9 @@
       <c r="D193" s="14"/>
       <c r="E193" s="15"/>
     </row>
-    <row r="194" spans="1:5" ht="20">
+    <row r="194" spans="1:5" ht="15">
       <c r="A194" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B194" s="9">
         <v>4000</v>
@@ -10850,9 +10852,9 @@
       <c r="D194" s="14"/>
       <c r="E194" s="15"/>
     </row>
-    <row r="195" spans="1:5" ht="20">
+    <row r="195" spans="1:5" ht="15">
       <c r="A195" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B195" s="9">
         <v>4000</v>
@@ -10861,9 +10863,9 @@
       <c r="D195" s="14"/>
       <c r="E195" s="15"/>
     </row>
-    <row r="196" spans="1:5" ht="20">
+    <row r="196" spans="1:5" ht="15">
       <c r="A196" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B196" s="9">
         <v>4000</v>
@@ -10872,9 +10874,9 @@
       <c r="D196" s="14"/>
       <c r="E196" s="15"/>
     </row>
-    <row r="197" spans="1:5" ht="20">
+    <row r="197" spans="1:5" ht="15">
       <c r="A197" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B197" s="9">
         <v>4000</v>
@@ -10883,9 +10885,9 @@
       <c r="D197" s="14"/>
       <c r="E197" s="15"/>
     </row>
-    <row r="198" spans="1:5" ht="20">
+    <row r="198" spans="1:5" ht="15">
       <c r="A198" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B198" s="9">
         <v>4000</v>
@@ -10894,9 +10896,9 @@
       <c r="D198" s="14"/>
       <c r="E198" s="15"/>
     </row>
-    <row r="199" spans="1:5" ht="20">
+    <row r="199" spans="1:5" ht="15">
       <c r="A199" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B199" s="9">
         <v>4000</v>
@@ -10905,9 +10907,9 @@
       <c r="D199" s="14"/>
       <c r="E199" s="15"/>
     </row>
-    <row r="200" spans="1:5" ht="20">
+    <row r="200" spans="1:5" ht="15">
       <c r="A200" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B200" s="9">
         <v>4000</v>
@@ -10916,9 +10918,9 @@
       <c r="D200" s="14"/>
       <c r="E200" s="15"/>
     </row>
-    <row r="201" spans="1:5" ht="20">
+    <row r="201" spans="1:5" ht="15">
       <c r="A201" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B201" s="9">
         <v>4000</v>
@@ -10927,9 +10929,9 @@
       <c r="D201" s="14"/>
       <c r="E201" s="15"/>
     </row>
-    <row r="202" spans="1:5" ht="20">
+    <row r="202" spans="1:5" ht="15">
       <c r="A202" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B202" s="9">
         <v>4000</v>
@@ -10938,9 +10940,9 @@
       <c r="D202" s="14"/>
       <c r="E202" s="15"/>
     </row>
-    <row r="203" spans="1:5" ht="20">
+    <row r="203" spans="1:5" ht="15">
       <c r="A203" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B203" s="9">
         <v>2000</v>
@@ -10949,9 +10951,9 @@
       <c r="D203" s="14"/>
       <c r="E203" s="15"/>
     </row>
-    <row r="204" spans="1:5" ht="20">
+    <row r="204" spans="1:5" ht="15">
       <c r="A204" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B204" s="9">
         <v>2000</v>
@@ -10960,9 +10962,9 @@
       <c r="D204" s="14"/>
       <c r="E204" s="15"/>
     </row>
-    <row r="205" spans="1:5" ht="20">
+    <row r="205" spans="1:5" ht="15">
       <c r="A205" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B205" s="9">
         <v>2000</v>
@@ -10971,9 +10973,9 @@
       <c r="D205" s="14"/>
       <c r="E205" s="15"/>
     </row>
-    <row r="206" spans="1:5" ht="20">
+    <row r="206" spans="1:5" ht="15">
       <c r="A206" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B206" s="9">
         <v>2000</v>
@@ -10982,9 +10984,9 @@
       <c r="D206" s="14"/>
       <c r="E206" s="15"/>
     </row>
-    <row r="207" spans="1:5" ht="20">
+    <row r="207" spans="1:5" ht="15">
       <c r="A207" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B207" s="9">
         <v>2000</v>
@@ -10993,9 +10995,9 @@
       <c r="D207" s="14"/>
       <c r="E207" s="15"/>
     </row>
-    <row r="208" spans="1:5" ht="20">
+    <row r="208" spans="1:5" ht="15">
       <c r="A208" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B208" s="9">
         <v>2000</v>
@@ -11004,9 +11006,9 @@
       <c r="D208" s="14"/>
       <c r="E208" s="15"/>
     </row>
-    <row r="209" spans="1:5" ht="20">
+    <row r="209" spans="1:5" ht="15">
       <c r="A209" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B209" s="9">
         <v>2000</v>
@@ -11015,9 +11017,9 @@
       <c r="D209" s="14"/>
       <c r="E209" s="15"/>
     </row>
-    <row r="210" spans="1:5" ht="20">
+    <row r="210" spans="1:5" ht="15">
       <c r="A210" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B210" s="9">
         <v>2000</v>
@@ -11026,9 +11028,9 @@
       <c r="D210" s="14"/>
       <c r="E210" s="15"/>
     </row>
-    <row r="211" spans="1:5" ht="20">
+    <row r="211" spans="1:5" ht="15">
       <c r="A211" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B211" s="9">
         <v>2000</v>
@@ -11037,9 +11039,9 @@
       <c r="D211" s="14"/>
       <c r="E211" s="15"/>
     </row>
-    <row r="212" spans="1:5" ht="20">
+    <row r="212" spans="1:5" ht="15">
       <c r="A212" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B212" s="9">
         <v>2000</v>
@@ -11048,9 +11050,9 @@
       <c r="D212" s="14"/>
       <c r="E212" s="15"/>
     </row>
-    <row r="213" spans="1:5" ht="20">
+    <row r="213" spans="1:5" ht="15">
       <c r="A213" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B213" s="9">
         <v>2000</v>
@@ -11059,9 +11061,9 @@
       <c r="D213" s="14"/>
       <c r="E213" s="15"/>
     </row>
-    <row r="214" spans="1:5" ht="20">
+    <row r="214" spans="1:5" ht="15">
       <c r="A214" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B214" s="9">
         <v>2000</v>
@@ -11070,9 +11072,9 @@
       <c r="D214" s="14"/>
       <c r="E214" s="15"/>
     </row>
-    <row r="215" spans="1:5" ht="20">
+    <row r="215" spans="1:5" ht="15">
       <c r="A215" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B215" s="9">
         <v>2000</v>
@@ -11081,9 +11083,9 @@
       <c r="D215" s="14"/>
       <c r="E215" s="15"/>
     </row>
-    <row r="216" spans="1:5" ht="20">
+    <row r="216" spans="1:5" ht="15">
       <c r="A216" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B216" s="9">
         <v>2000</v>
@@ -11092,9 +11094,9 @@
       <c r="D216" s="14"/>
       <c r="E216" s="15"/>
     </row>
-    <row r="217" spans="1:5" ht="20">
+    <row r="217" spans="1:5" ht="15">
       <c r="A217" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B217" s="9">
         <v>2000</v>
@@ -11103,9 +11105,9 @@
       <c r="D217" s="14"/>
       <c r="E217" s="15"/>
     </row>
-    <row r="218" spans="1:5" ht="20">
+    <row r="218" spans="1:5" ht="15">
       <c r="A218" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B218" s="9">
         <v>2000</v>
@@ -11114,9 +11116,9 @@
       <c r="D218" s="14"/>
       <c r="E218" s="15"/>
     </row>
-    <row r="219" spans="1:5" ht="20">
+    <row r="219" spans="1:5" ht="15">
       <c r="A219" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B219" s="9">
         <v>2000</v>
@@ -11125,9 +11127,9 @@
       <c r="D219" s="14"/>
       <c r="E219" s="15"/>
     </row>
-    <row r="220" spans="1:5" ht="20">
+    <row r="220" spans="1:5" ht="15">
       <c r="A220" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B220" s="9">
         <v>2000</v>
@@ -11136,9 +11138,9 @@
       <c r="D220" s="14"/>
       <c r="E220" s="15"/>
     </row>
-    <row r="221" spans="1:5" ht="20">
+    <row r="221" spans="1:5" ht="15">
       <c r="A221" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B221" s="9">
         <v>2000</v>
@@ -11147,9 +11149,9 @@
       <c r="D221" s="14"/>
       <c r="E221" s="15"/>
     </row>
-    <row r="222" spans="1:5" ht="20">
+    <row r="222" spans="1:5" ht="15">
       <c r="A222" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B222" s="9">
         <v>2000</v>
@@ -11158,9 +11160,9 @@
       <c r="D222" s="14"/>
       <c r="E222" s="15"/>
     </row>
-    <row r="223" spans="1:5" ht="20">
+    <row r="223" spans="1:5" ht="15">
       <c r="A223" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B223" s="9">
         <v>2000</v>
@@ -11169,9 +11171,9 @@
       <c r="D223" s="14"/>
       <c r="E223" s="15"/>
     </row>
-    <row r="224" spans="1:5" ht="20">
+    <row r="224" spans="1:5" ht="15">
       <c r="A224" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B224" s="9">
         <v>2000</v>
@@ -11180,9 +11182,9 @@
       <c r="D224" s="14"/>
       <c r="E224" s="15"/>
     </row>
-    <row r="225" spans="1:5" ht="20">
+    <row r="225" spans="1:5" ht="15">
       <c r="A225" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B225" s="9">
         <v>2000</v>
@@ -11191,9 +11193,9 @@
       <c r="D225" s="14"/>
       <c r="E225" s="15"/>
     </row>
-    <row r="226" spans="1:5" ht="20">
+    <row r="226" spans="1:5" ht="15">
       <c r="A226" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B226" s="9">
         <v>2000</v>
@@ -11202,9 +11204,9 @@
       <c r="D226" s="14"/>
       <c r="E226" s="15"/>
     </row>
-    <row r="227" spans="1:5" ht="20">
+    <row r="227" spans="1:5" ht="15">
       <c r="A227" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B227" s="9">
         <v>2000</v>
@@ -11213,9 +11215,9 @@
       <c r="D227" s="14"/>
       <c r="E227" s="15"/>
     </row>
-    <row r="228" spans="1:5" ht="20">
+    <row r="228" spans="1:5" ht="15">
       <c r="A228" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B228" s="9">
         <v>2000</v>
@@ -11224,9 +11226,9 @@
       <c r="D228" s="14"/>
       <c r="E228" s="15"/>
     </row>
-    <row r="229" spans="1:5" ht="20">
+    <row r="229" spans="1:5" ht="15">
       <c r="A229" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B229" s="9">
         <v>2000</v>
@@ -11235,9 +11237,9 @@
       <c r="D229" s="14"/>
       <c r="E229" s="15"/>
     </row>
-    <row r="230" spans="1:5" ht="20">
+    <row r="230" spans="1:5" ht="15">
       <c r="A230" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B230" s="9">
         <v>2000</v>
@@ -11246,9 +11248,9 @@
       <c r="D230" s="14"/>
       <c r="E230" s="15"/>
     </row>
-    <row r="231" spans="1:5" ht="20">
+    <row r="231" spans="1:5" ht="15">
       <c r="A231" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B231" s="9">
         <v>2000</v>
@@ -11257,9 +11259,9 @@
       <c r="D231" s="14"/>
       <c r="E231" s="15"/>
     </row>
-    <row r="232" spans="1:5" ht="20">
+    <row r="232" spans="1:5" ht="15">
       <c r="A232" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B232" s="9">
         <v>2000</v>
@@ -11268,9 +11270,9 @@
       <c r="D232" s="14"/>
       <c r="E232" s="15"/>
     </row>
-    <row r="233" spans="1:5" ht="20">
+    <row r="233" spans="1:5" ht="15">
       <c r="A233" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B233" s="9">
         <v>2000</v>
@@ -11279,9 +11281,9 @@
       <c r="D233" s="14"/>
       <c r="E233" s="15"/>
     </row>
-    <row r="234" spans="1:5" ht="20">
+    <row r="234" spans="1:5" ht="15">
       <c r="A234" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B234" s="9">
         <v>2000</v>
@@ -11290,9 +11292,9 @@
       <c r="D234" s="14"/>
       <c r="E234" s="15"/>
     </row>
-    <row r="235" spans="1:5" ht="20">
+    <row r="235" spans="1:5" ht="15">
       <c r="A235" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B235" s="9">
         <v>2000</v>
@@ -11301,9 +11303,9 @@
       <c r="D235" s="14"/>
       <c r="E235" s="15"/>
     </row>
-    <row r="236" spans="1:5" ht="20">
+    <row r="236" spans="1:5" ht="15">
       <c r="A236" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B236" s="9">
         <v>2000</v>
@@ -11312,9 +11314,9 @@
       <c r="D236" s="14"/>
       <c r="E236" s="15"/>
     </row>
-    <row r="237" spans="1:5" ht="20">
+    <row r="237" spans="1:5" ht="15">
       <c r="A237" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B237" s="9">
         <v>2000</v>
@@ -11323,9 +11325,9 @@
       <c r="D237" s="14"/>
       <c r="E237" s="15"/>
     </row>
-    <row r="238" spans="1:5" ht="20">
+    <row r="238" spans="1:5" ht="15">
       <c r="A238" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B238" s="9">
         <v>2000</v>
@@ -11334,9 +11336,9 @@
       <c r="D238" s="14"/>
       <c r="E238" s="15"/>
     </row>
-    <row r="239" spans="1:5" ht="20">
+    <row r="239" spans="1:5" ht="15">
       <c r="A239" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B239" s="9">
         <v>2000</v>
@@ -11345,9 +11347,9 @@
       <c r="D239" s="14"/>
       <c r="E239" s="15"/>
     </row>
-    <row r="240" spans="1:5" ht="20">
+    <row r="240" spans="1:5" ht="15">
       <c r="A240" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B240" s="9">
         <v>2000</v>
@@ -11356,9 +11358,9 @@
       <c r="D240" s="14"/>
       <c r="E240" s="15"/>
     </row>
-    <row r="241" spans="1:5" ht="20">
+    <row r="241" spans="1:5" ht="15">
       <c r="A241" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B241" s="9">
         <v>2000</v>
@@ -11367,9 +11369,9 @@
       <c r="D241" s="14"/>
       <c r="E241" s="15"/>
     </row>
-    <row r="242" spans="1:5" ht="20">
+    <row r="242" spans="1:5" ht="15">
       <c r="A242" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B242" s="9">
         <v>2000</v>
@@ -11378,9 +11380,9 @@
       <c r="D242" s="14"/>
       <c r="E242" s="15"/>
     </row>
-    <row r="243" spans="1:5" ht="40">
+    <row r="243" spans="1:5" ht="30">
       <c r="A243" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B243" s="9">
         <v>2000</v>
@@ -11389,9 +11391,9 @@
       <c r="D243" s="14"/>
       <c r="E243" s="15"/>
     </row>
-    <row r="244" spans="1:5" ht="20">
+    <row r="244" spans="1:5" ht="15">
       <c r="A244" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B244" s="9">
         <v>2000</v>
@@ -11400,9 +11402,9 @@
       <c r="D244" s="14"/>
       <c r="E244" s="15"/>
     </row>
-    <row r="245" spans="1:5" ht="40">
+    <row r="245" spans="1:5" ht="30">
       <c r="A245" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B245" s="9">
         <v>2000</v>
@@ -11411,9 +11413,9 @@
       <c r="D245" s="14"/>
       <c r="E245" s="15"/>
     </row>
-    <row r="246" spans="1:5" ht="20">
+    <row r="246" spans="1:5" ht="15">
       <c r="A246" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B246" s="9">
         <v>2000</v>
@@ -11422,9 +11424,9 @@
       <c r="D246" s="14"/>
       <c r="E246" s="15"/>
     </row>
-    <row r="247" spans="1:5" ht="20">
+    <row r="247" spans="1:5" ht="15">
       <c r="A247" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B247" s="9">
         <v>2000</v>
@@ -11433,9 +11435,9 @@
       <c r="D247" s="14"/>
       <c r="E247" s="15"/>
     </row>
-    <row r="248" spans="1:5" ht="20">
+    <row r="248" spans="1:5" ht="15">
       <c r="A248" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B248" s="9">
         <v>2000</v>
@@ -11444,9 +11446,9 @@
       <c r="D248" s="14"/>
       <c r="E248" s="15"/>
     </row>
-    <row r="249" spans="1:5" ht="20">
+    <row r="249" spans="1:5" ht="15">
       <c r="A249" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B249" s="9">
         <v>2000</v>
@@ -11455,9 +11457,9 @@
       <c r="D249" s="14"/>
       <c r="E249" s="15"/>
     </row>
-    <row r="250" spans="1:5" ht="20">
+    <row r="250" spans="1:5" ht="15">
       <c r="A250" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B250" s="9">
         <v>2000</v>
@@ -11466,9 +11468,9 @@
       <c r="D250" s="14"/>
       <c r="E250" s="15"/>
     </row>
-    <row r="251" spans="1:5" ht="20">
+    <row r="251" spans="1:5" ht="15">
       <c r="A251" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B251" s="9">
         <v>2000</v>
@@ -11477,9 +11479,9 @@
       <c r="D251" s="14"/>
       <c r="E251" s="15"/>
     </row>
-    <row r="252" spans="1:5" ht="20">
+    <row r="252" spans="1:5" ht="15">
       <c r="A252" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B252" s="9">
         <v>2000</v>
@@ -11488,9 +11490,9 @@
       <c r="D252" s="14"/>
       <c r="E252" s="15"/>
     </row>
-    <row r="253" spans="1:5" ht="20">
+    <row r="253" spans="1:5" ht="15">
       <c r="A253" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B253" s="9">
         <v>2000</v>
@@ -11499,9 +11501,9 @@
       <c r="D253" s="14"/>
       <c r="E253" s="15"/>
     </row>
-    <row r="254" spans="1:5" ht="20">
+    <row r="254" spans="1:5" ht="15">
       <c r="A254" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B254" s="9">
         <v>2000</v>
@@ -11510,9 +11512,9 @@
       <c r="D254" s="14"/>
       <c r="E254" s="15"/>
     </row>
-    <row r="255" spans="1:5" ht="20">
+    <row r="255" spans="1:5" ht="15">
       <c r="A255" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B255" s="9">
         <v>2000</v>
@@ -11521,9 +11523,9 @@
       <c r="D255" s="14"/>
       <c r="E255" s="15"/>
     </row>
-    <row r="256" spans="1:5" ht="20">
+    <row r="256" spans="1:5" ht="15">
       <c r="A256" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B256" s="9">
         <v>2000</v>
@@ -11532,9 +11534,9 @@
       <c r="D256" s="14"/>
       <c r="E256" s="15"/>
     </row>
-    <row r="257" spans="1:5" ht="20">
+    <row r="257" spans="1:5" ht="15">
       <c r="A257" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B257" s="9">
         <v>2000</v>
@@ -11543,9 +11545,9 @@
       <c r="D257" s="14"/>
       <c r="E257" s="15"/>
     </row>
-    <row r="258" spans="1:5" ht="20">
+    <row r="258" spans="1:5" ht="15">
       <c r="A258" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B258" s="9">
         <v>2000</v>
@@ -11554,9 +11556,9 @@
       <c r="D258" s="14"/>
       <c r="E258" s="15"/>
     </row>
-    <row r="259" spans="1:5" ht="20">
+    <row r="259" spans="1:5" ht="15">
       <c r="A259" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B259" s="9">
         <v>2000</v>
@@ -11565,9 +11567,9 @@
       <c r="D259" s="14"/>
       <c r="E259" s="15"/>
     </row>
-    <row r="260" spans="1:5" ht="20">
+    <row r="260" spans="1:5" ht="15">
       <c r="A260" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B260" s="9">
         <v>2000</v>
@@ -11576,9 +11578,9 @@
       <c r="D260" s="14"/>
       <c r="E260" s="15"/>
     </row>
-    <row r="261" spans="1:5" ht="20">
+    <row r="261" spans="1:5" ht="15">
       <c r="A261" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B261" s="9">
         <v>2000</v>
@@ -11587,9 +11589,9 @@
       <c r="D261" s="14"/>
       <c r="E261" s="15"/>
     </row>
-    <row r="262" spans="1:5" ht="20">
+    <row r="262" spans="1:5" ht="15">
       <c r="A262" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B262" s="9">
         <v>2000</v>
@@ -11598,9 +11600,9 @@
       <c r="D262" s="14"/>
       <c r="E262" s="15"/>
     </row>
-    <row r="263" spans="1:5" ht="20">
+    <row r="263" spans="1:5" ht="15">
       <c r="A263" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B263" s="9">
         <v>2000</v>
@@ -11609,9 +11611,9 @@
       <c r="D263" s="14"/>
       <c r="E263" s="15"/>
     </row>
-    <row r="264" spans="1:5" ht="20">
+    <row r="264" spans="1:5" ht="15">
       <c r="A264" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B264" s="9">
         <v>2000</v>
@@ -11620,9 +11622,9 @@
       <c r="D264" s="14"/>
       <c r="E264" s="15"/>
     </row>
-    <row r="265" spans="1:5" ht="20">
+    <row r="265" spans="1:5" ht="15">
       <c r="A265" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B265" s="9">
         <v>2000</v>
@@ -11631,9 +11633,9 @@
       <c r="D265" s="14"/>
       <c r="E265" s="15"/>
     </row>
-    <row r="266" spans="1:5" ht="20">
+    <row r="266" spans="1:5" ht="15">
       <c r="A266" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B266" s="9">
         <v>2000</v>
@@ -11642,9 +11644,9 @@
       <c r="D266" s="14"/>
       <c r="E266" s="15"/>
     </row>
-    <row r="267" spans="1:5" ht="20">
+    <row r="267" spans="1:5" ht="15">
       <c r="A267" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B267" s="9">
         <v>2000</v>
@@ -11653,9 +11655,9 @@
       <c r="D267" s="14"/>
       <c r="E267" s="15"/>
     </row>
-    <row r="268" spans="1:5" ht="20">
+    <row r="268" spans="1:5" ht="15">
       <c r="A268" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B268" s="9">
         <v>2000</v>
@@ -11664,9 +11666,9 @@
       <c r="D268" s="14"/>
       <c r="E268" s="15"/>
     </row>
-    <row r="269" spans="1:5" ht="20">
+    <row r="269" spans="1:5" ht="15">
       <c r="A269" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B269" s="9">
         <v>2000</v>
@@ -11675,9 +11677,9 @@
       <c r="D269" s="14"/>
       <c r="E269" s="15"/>
     </row>
-    <row r="270" spans="1:5" ht="20">
+    <row r="270" spans="1:5" ht="15">
       <c r="A270" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B270" s="9">
         <v>2000</v>
@@ -11686,9 +11688,9 @@
       <c r="D270" s="14"/>
       <c r="E270" s="15"/>
     </row>
-    <row r="271" spans="1:5" ht="20">
+    <row r="271" spans="1:5" ht="15">
       <c r="A271" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B271" s="9">
         <v>2000</v>
@@ -11697,9 +11699,9 @@
       <c r="D271" s="14"/>
       <c r="E271" s="15"/>
     </row>
-    <row r="272" spans="1:5" ht="20">
+    <row r="272" spans="1:5" ht="15">
       <c r="A272" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B272" s="9">
         <v>2000</v>
@@ -11708,9 +11710,9 @@
       <c r="D272" s="14"/>
       <c r="E272" s="15"/>
     </row>
-    <row r="273" spans="1:5" ht="20">
+    <row r="273" spans="1:5" ht="15">
       <c r="A273" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B273" s="9">
         <v>2000</v>
@@ -11719,9 +11721,9 @@
       <c r="D273" s="14"/>
       <c r="E273" s="15"/>
     </row>
-    <row r="274" spans="1:5" ht="20">
+    <row r="274" spans="1:5" ht="15">
       <c r="A274" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B274" s="9">
         <v>2000</v>
@@ -11730,9 +11732,9 @@
       <c r="D274" s="14"/>
       <c r="E274" s="15"/>
     </row>
-    <row r="275" spans="1:5" ht="20">
+    <row r="275" spans="1:5" ht="15">
       <c r="A275" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B275" s="9">
         <v>2000</v>
@@ -11741,9 +11743,9 @@
       <c r="D275" s="14"/>
       <c r="E275" s="15"/>
     </row>
-    <row r="276" spans="1:5" ht="20">
+    <row r="276" spans="1:5" ht="15">
       <c r="A276" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B276" s="9">
         <v>2000</v>
@@ -11752,9 +11754,9 @@
       <c r="D276" s="14"/>
       <c r="E276" s="15"/>
     </row>
-    <row r="277" spans="1:5" ht="20">
+    <row r="277" spans="1:5" ht="15">
       <c r="A277" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B277" s="9">
         <v>2000</v>
@@ -11763,9 +11765,9 @@
       <c r="D277" s="14"/>
       <c r="E277" s="15"/>
     </row>
-    <row r="278" spans="1:5" ht="20">
+    <row r="278" spans="1:5" ht="15">
       <c r="A278" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B278" s="9">
         <v>2000</v>
@@ -11774,9 +11776,9 @@
       <c r="D278" s="14"/>
       <c r="E278" s="15"/>
     </row>
-    <row r="279" spans="1:5" ht="20">
+    <row r="279" spans="1:5" ht="15">
       <c r="A279" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B279" s="9">
         <v>2000</v>
@@ -11785,9 +11787,9 @@
       <c r="D279" s="14"/>
       <c r="E279" s="15"/>
     </row>
-    <row r="280" spans="1:5" ht="20">
+    <row r="280" spans="1:5" ht="15">
       <c r="A280" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B280" s="9">
         <v>2000</v>
@@ -11796,9 +11798,9 @@
       <c r="D280" s="14"/>
       <c r="E280" s="15"/>
     </row>
-    <row r="281" spans="1:5" ht="20">
+    <row r="281" spans="1:5" ht="15">
       <c r="A281" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B281" s="9">
         <v>2000</v>
@@ -11807,9 +11809,9 @@
       <c r="D281" s="14"/>
       <c r="E281" s="15"/>
     </row>
-    <row r="282" spans="1:5" ht="20">
+    <row r="282" spans="1:5" ht="15">
       <c r="A282" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B282" s="9">
         <v>2000</v>
@@ -11818,9 +11820,9 @@
       <c r="D282" s="14"/>
       <c r="E282" s="15"/>
     </row>
-    <row r="283" spans="1:5" ht="20">
+    <row r="283" spans="1:5" ht="15">
       <c r="A283" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B283" s="9">
         <v>2000</v>
@@ -11829,9 +11831,9 @@
       <c r="D283" s="14"/>
       <c r="E283" s="15"/>
     </row>
-    <row r="284" spans="1:5" ht="20">
+    <row r="284" spans="1:5" ht="15">
       <c r="A284" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B284" s="9">
         <v>2000</v>
@@ -11840,9 +11842,9 @@
       <c r="D284" s="14"/>
       <c r="E284" s="15"/>
     </row>
-    <row r="285" spans="1:5" ht="20">
+    <row r="285" spans="1:5" ht="15">
       <c r="A285" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B285" s="9">
         <v>2000</v>
@@ -11851,9 +11853,9 @@
       <c r="D285" s="14"/>
       <c r="E285" s="15"/>
     </row>
-    <row r="286" spans="1:5" ht="20">
+    <row r="286" spans="1:5" ht="15">
       <c r="A286" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B286" s="9">
         <v>2000</v>
@@ -11862,9 +11864,9 @@
       <c r="D286" s="14"/>
       <c r="E286" s="15"/>
     </row>
-    <row r="287" spans="1:5" ht="20">
+    <row r="287" spans="1:5" ht="15">
       <c r="A287" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B287" s="9">
         <v>2000</v>
@@ -11873,9 +11875,9 @@
       <c r="D287" s="14"/>
       <c r="E287" s="15"/>
     </row>
-    <row r="288" spans="1:5" ht="20">
+    <row r="288" spans="1:5" ht="15">
       <c r="A288" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B288" s="9">
         <v>2000</v>
@@ -11884,9 +11886,9 @@
       <c r="D288" s="14"/>
       <c r="E288" s="15"/>
     </row>
-    <row r="289" spans="1:5" ht="20">
+    <row r="289" spans="1:5" ht="15">
       <c r="A289" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B289" s="9">
         <v>2000</v>
@@ -11895,9 +11897,9 @@
       <c r="D289" s="14"/>
       <c r="E289" s="15"/>
     </row>
-    <row r="290" spans="1:5" ht="20">
+    <row r="290" spans="1:5" ht="15">
       <c r="A290" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B290" s="9">
         <v>2000</v>
@@ -11906,9 +11908,9 @@
       <c r="D290" s="14"/>
       <c r="E290" s="15"/>
     </row>
-    <row r="291" spans="1:5" ht="20">
+    <row r="291" spans="1:5" ht="15">
       <c r="A291" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B291" s="9">
         <v>2000</v>
@@ -11917,9 +11919,9 @@
       <c r="D291" s="14"/>
       <c r="E291" s="15"/>
     </row>
-    <row r="292" spans="1:5" ht="20">
+    <row r="292" spans="1:5" ht="15">
       <c r="A292" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B292" s="9">
         <v>2000</v>
@@ -11928,9 +11930,9 @@
       <c r="D292" s="14"/>
       <c r="E292" s="15"/>
     </row>
-    <row r="293" spans="1:5" ht="20">
+    <row r="293" spans="1:5" ht="15">
       <c r="A293" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B293" s="9">
         <v>2000</v>
@@ -11939,9 +11941,9 @@
       <c r="D293" s="14"/>
       <c r="E293" s="15"/>
     </row>
-    <row r="294" spans="1:5" ht="20">
+    <row r="294" spans="1:5" ht="15">
       <c r="A294" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B294" s="9">
         <v>2000</v>
@@ -11950,9 +11952,9 @@
       <c r="D294" s="14"/>
       <c r="E294" s="15"/>
     </row>
-    <row r="295" spans="1:5" ht="20">
+    <row r="295" spans="1:5" ht="15">
       <c r="A295" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B295" s="9">
         <v>2000</v>
@@ -11961,9 +11963,9 @@
       <c r="D295" s="14"/>
       <c r="E295" s="15"/>
     </row>
-    <row r="296" spans="1:5" ht="20">
+    <row r="296" spans="1:5" ht="15">
       <c r="A296" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B296" s="9">
         <v>2000</v>
@@ -11972,9 +11974,9 @@
       <c r="D296" s="14"/>
       <c r="E296" s="15"/>
     </row>
-    <row r="297" spans="1:5" ht="20">
+    <row r="297" spans="1:5" ht="15">
       <c r="A297" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B297" s="9">
         <v>2000</v>
@@ -11983,9 +11985,9 @@
       <c r="D297" s="14"/>
       <c r="E297" s="15"/>
     </row>
-    <row r="298" spans="1:5" ht="20">
+    <row r="298" spans="1:5" ht="15">
       <c r="A298" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B298" s="9">
         <v>2000</v>
@@ -11994,9 +11996,9 @@
       <c r="D298" s="14"/>
       <c r="E298" s="15"/>
     </row>
-    <row r="299" spans="1:5" ht="20">
+    <row r="299" spans="1:5" ht="15">
       <c r="A299" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B299" s="9">
         <v>4000</v>
@@ -12005,9 +12007,9 @@
       <c r="D299" s="14"/>
       <c r="E299" s="15"/>
     </row>
-    <row r="300" spans="1:5" ht="20">
+    <row r="300" spans="1:5" ht="15">
       <c r="A300" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B300" s="9">
         <v>4000</v>
@@ -12016,9 +12018,9 @@
       <c r="D300" s="14"/>
       <c r="E300" s="15"/>
     </row>
-    <row r="301" spans="1:5" ht="20">
+    <row r="301" spans="1:5" ht="15">
       <c r="A301" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B301" s="9">
         <v>4000</v>
@@ -12027,9 +12029,9 @@
       <c r="D301" s="14"/>
       <c r="E301" s="15"/>
     </row>
-    <row r="302" spans="1:5" ht="20">
+    <row r="302" spans="1:5" ht="15">
       <c r="A302" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B302" s="9">
         <v>4000</v>
@@ -12038,9 +12040,9 @@
       <c r="D302" s="14"/>
       <c r="E302" s="15"/>
     </row>
-    <row r="303" spans="1:5" ht="20">
+    <row r="303" spans="1:5" ht="15">
       <c r="A303" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B303" s="9">
         <v>4000</v>
@@ -12049,9 +12051,9 @@
       <c r="D303" s="14"/>
       <c r="E303" s="15"/>
     </row>
-    <row r="304" spans="1:5" ht="20">
+    <row r="304" spans="1:5" ht="15">
       <c r="A304" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B304" s="9">
         <v>4000</v>
@@ -12060,9 +12062,9 @@
       <c r="D304" s="14"/>
       <c r="E304" s="15"/>
     </row>
-    <row r="305" spans="1:5" ht="20">
+    <row r="305" spans="1:5" ht="15">
       <c r="A305" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B305" s="9">
         <v>4000</v>
@@ -12071,9 +12073,9 @@
       <c r="D305" s="14"/>
       <c r="E305" s="15"/>
     </row>
-    <row r="306" spans="1:5" ht="20">
+    <row r="306" spans="1:5" ht="15">
       <c r="A306" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B306" s="9">
         <v>4000</v>
@@ -12082,28 +12084,28 @@
       <c r="D306" s="14"/>
       <c r="E306" s="15"/>
     </row>
-    <row r="307" spans="1:5" ht="19">
+    <row r="307" spans="1:5" ht="15">
       <c r="A307" s="16"/>
       <c r="B307" s="17"/>
       <c r="C307" s="13"/>
       <c r="D307" s="14"/>
       <c r="E307" s="15"/>
     </row>
-    <row r="308" spans="1:5" ht="19">
+    <row r="308" spans="1:5" ht="15">
       <c r="A308" s="16"/>
       <c r="B308" s="17"/>
       <c r="C308" s="13"/>
       <c r="D308" s="14"/>
       <c r="E308" s="15"/>
     </row>
-    <row r="309" spans="1:5" ht="19">
+    <row r="309" spans="1:5" ht="15">
       <c r="A309" s="16"/>
       <c r="B309" s="17"/>
       <c r="C309" s="13"/>
       <c r="D309" s="14"/>
       <c r="E309" s="15"/>
     </row>
-    <row r="310" spans="1:5" ht="19">
+    <row r="310" spans="1:5" ht="15">
       <c r="A310" s="16"/>
       <c r="B310" s="17"/>
       <c r="C310" s="13"/>
@@ -12113,5 +12115,6 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>